--- a/smartweb/code/output.xlsx
+++ b/smartweb/code/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E339"/>
+  <dimension ref="A1:E395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-whistleblower-system-16041</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -479,24 +479,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Complying with statutory regulations and internal rules, and the principles laid down in our Code of Conduct for Business Partners , has top priority at the Volkswagen Group. The success of our company is based on Integrity and Compliance. To meet these standards, it is important to learn of potential employee or supplier misconduct and to put a stop to it. That is why the Central Investigation Office operates an independent, impartial and confidential whistleblowing system for us. A key pillar of our Whistleblower System is the principle of procedural fairness. It also guarantees the greatest possible protection for whistleblowers, persons implicated and employees contributing to the investigation of reported misconduct. This also includes offering opportunities for anonymous reporting and communication. We assure not to perform any steps in order to identify anonymous  whistleblowers, who do not misuse our Whistleblower System. Retaliation of whistleblowers and all persons who contribute to investigations at the Volkswagen Group will not be tolerated. Persons implicated are presumed innocent until the violation is proven. Investigations will be conducted with the utmost confidentiality. The information will be processed in a fair, fast and protected process. The qualified and experienced colleagues at the Investigation Office examine every report for potential misconduct by a Volkswagen Group employee thoroughly and follow it up systematically. First, will get a confirmation of receipt. The Investigation Office then assesses their report. This includes gathering facts particularly from the whistleblower. Only if this initial evaluation shows grounds for suspicion of a violation an investigation by a dedicated Investigating Unit will be started. Afterward, the results of the investigation will be assessed by the Investigation Office and appropriate measures will be recommended. Information about the status* and the outcome of the procedure will be provided without </t>
+          <t>Deloitte Insights and our research centers deliver proprietary research designed to help organizations turn their aspirations into action. For personalized content and settings, go to yourMy Deloitte Dashboard Creating opportunity at the intersection of climate disruption and regulatory change Better questions about generative AI Deloitte Insights Magazine, issue 33 Stay informed on the issues impacting your business with Deloitte's live webcast series. Gain valuable insights and practical knowledge from our specialists while earning CPE credits. Join host Tanya Ott as she interviews influential voices discussing the business trends and challenges that matter most to your business today. Looking to stay on top of the latest news and trends? With MyDeloitte you'll never miss out on the information you need to lead. Simply link your email or social profile and select the newsletters and alerts that matter most to you. More roles, more responsibilities: Navigating the new frontiers of the modern C-suite Organizations are rethinking the makeup of their C-suites to account for increasing complexities. Our new analysis sheds light on how leaders can best prepare for the next evolution of the C-suite. Partner | US Executive Accelerators | Deloitte &amp; Touche LLP Paul is a partner with Deloitte &amp; Touche LLP and leads Deloitte’s US Executive Accelerators (XA) in Clients &amp; Markets Growth (CMG). Previously, Paul led Deloitte’s US Technology Sector, as well as Technology, Media &amp; Telecommunications (TMT) industry practice in Risk &amp; Financial Advisory, and worked as an auditor in the Audit &amp; Assurance business. With more than 35 years of professional services experience, Paul also serves as an advisory partner for a select number of Deloitte’s most strategic global technology clients. Additionally, Paul is the Deloitte US executive sponsor of the Catalyst Tel Aviv Program, which helps US clients interested in innovation engage with the 6,000+ Israeli start-up community.Paul specia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-whistleblower-system-16041</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-whistleblower-system-16041#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,17 +509,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-whistleblower-system-16041</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-whistleblower-system-16041#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#strategies</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -532,40 +532,40 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-share-key-figures-16045</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-sup-5</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Download Key Figures 2019 - 2023 XLS</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-share-key-figures-16045</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-share-key-figures-16045#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,17 +578,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-share-key-figures-16045</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-share-key-figures-16045#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#method</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -601,40 +601,40 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/social-engagement-16086</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#challenges</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>With its social engagement, the Volkswagen Group aims to make tangible contributions to the common good - worldwide. As the Volkswagen Group, we assume responsibility for society and the environment at our sites – in line with the goal of our Group People Strategy "Aligned with society and environment". The Volkswagen Group and its employees support refugees in many different ways and cooperates specifically with national and international aid organizations. For decades, the Volkswagen Group workforce has assumed social responsibility for those in need. Concrete projects are supported which, for example, improve the situation of people whose quality of life is impaired by illness, disability or other circumstances.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/social-engagement-16086</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/social-engagement-16086#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-3</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -647,17 +647,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/social-engagement-16086</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/social-engagement-16086#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -670,40 +670,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/site-notice-15695</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-sup-4</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Volkswagen Aktiengesellschaft is a publicly quoted stock corporation under German law, with its registered office in Wolfsburg. Berliner Ring 2, 38440 Wolfsburg, Germany Volkswagen Aktiengesellschaft is entered in the Register of Companies at the District Court of Braunschweig under number HRB 100484. The sales tax (VAT) registration number of Volkswagen AG is DE 115235681. Volkswagen is neither committed nor obliged to participate in dispute resolution before a consumer arbitration board. Responsible according to § 18 Abs. 2 MStV: Dr. Sebastian Rudolph, Volkswagen AG, Berliner Ring 2, 38440 Wolfsburg. Head of Global Group Communications. The following notices on consumer dispute resolution and online dispute settlements only apply to consumers with residency in the European Union and do not affect the legal settlement regulations that exist in countries outside of the European Union. Volkswagen AG is neither willing nor obligated to take part in a dispute resolution procedures before a consumer arbitration board. The European Commission provides a platform for online extrajudicial settlements, which can be found at . On this platform, consumers will find a list of consumer settlement bodies that may be helpful for the extrajudicial settlement of disputes. Authorised representatives for medical device safety according to §6 MPBetreibV:</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/site-notice-15695</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/site-notice-15695#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-sup-3</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -716,17 +716,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/site-notice-15695</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/site-notice-15695#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-sup-1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -739,40 +739,40 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-and-ratings-16034</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-sup-2</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>International capital markets are of particular importance for the funding strategy of the Volkswagen Group as they provide liquidity at  favorable conditions. Credit ratings conducted on a regular basis by Fitch, Moody's, Standard &amp; Poor's Ratings Services, DBRS and provide our investors with  additional transparency.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-and-ratings-16034</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-and-ratings-16034#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#whats-driving</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -785,17 +785,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-and-ratings-16034</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-and-ratings-16034#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/topics/strategy/new-c-suite-roles-and-responsibility-expansion.html#endnote-1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -808,12 +808,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
+          <t>https://www2.deloitte.com/us/en.html</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -824,47 +824,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">With the Group strategy "NEW AUTO – Mobility for Generations to Come", we are preparing ourselves for the global changes in mobility and thus playing a substantial role in driving Volkswagen’s transformation into a software-oriented company. As technology advances, the automotive industry is rapidly forging ahead with its transformation toward e-mobility and digitalization. We therefore expect the market for electric vehicles to grow strongly in the next few years, meaning that the cost-efficient and sustainable production of battery systems and the expansion of the charging infrastructure will be crucial to success. The shift to connected, intelligent and eventually self-driving vehicles will, however, bring more wide-reaching changes for the automotive industry. Autonomous driving will change the customer's mobility experience forever and lay the ground for new business models. Sources of revenue will gradually shift and will expand beyond the core product of the automobile. Increasing software development capabilities in order to excite customers with constantly improving digital functionality is the prerequisite for this. In equal measure to technological trends, the global economic and geopolitical environment is also posing increased challenges for the automotive industry. These include, for example, the economic influ­ence of the largest mobility markets, China, the USA and Europe, and their diverging development. Sustainability will continue to be a recurring theme in the business world and will gain further perti­nence, driven by the increasingly noticeable consequences of climate change, a greater consciousness of sustainable lifestyles on the part of the customer and, not least, underlying factors such as the Paris Climate Agreement. As we transition from automotive manufacturer to mobility group, we are resetting our priorities with NEW AUTO and positioning ourselves for the future. We are keeping our aim of being a world-leading provider of sustainable </t>
+          <t>Limited functionality available Explore Deloitte's Unlimited Reality™ services Cultivating a sustainable and prosperous future Real-world client stories of purpose and impact Commercial, products, and operations transformation for the future of your industry. Go straight to smart with daily updates on your mobile device See what's happening this week and the impact on your business At Deloitte, we lead with purpose and DEI to help enact positive change for our people and communities. By deepening our commitments to social impact, sustainability, equity, and trust, we’re helping to create a more prosperous and equitable society. Your success is our focus. From internships to on-the-job training, there’s plenty of room for your career to grow for years to come. Apply today and join us. We can impact the world—together. Inspiring connections. Impactful work. All here. All waiting to be discovered by you. When you join our Talent Network, you're connecting to career resources that provide insights into working at Deloitte and potential job opportunities. Let's get started. Deloitte named a Leader in IDC MarketScape: Industry Cloud This report evaluates vendors in the industry cloud professional services market and recognizes Deloitte as a Leader. Navigating the new frontiers of the modern C-suite Organizations are rethinking the makeup of their C-suites to account for increasing complexities. How can you best prepare? Global economic outlook, January 2025 Economic uncertainty seems to be the biggest factor determining the path that countries take in 2025. Crisis management for boards of directors As boards consider crisis planning for the year ahead, they face a challenging environment marked by the emergence of new crises. As boards consider crisis planning for the year ahead, they face a challenging environment marked by the emergence of new crises. 2025 global semiconductor industry outlook This outlook seeks to identify the strategic issues and opportunities for sem</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955#content</t>
-        </is>
-      </c>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Deloitte Insights and our research centers deliver proprietary research designed to help organizations turn their aspirations into action. For personalized content and settings, go to yourMy Deloitte Dashboard Creating opportunity at the intersection of climate disruption and regulatory change Better questions about generative AI Deloitte Insights Magazine, issue 33 Stay informed on the issues impacting your business with Deloitte's live webcast series. Gain valuable insights and practical knowledge from our specialists while earning CPE credits. Join host Tanya Ott as she interviews influential voices discussing the business trends and challenges that matter most to your business today. Looking to stay on top of the latest news and trends? With MyDeloitte you'll never miss out on the information you need to lead. Simply link your email or social profile and select the newsletters and alerts that matter most to you. 2025 global semiconductor industry outlook Chip sales are set to soar in 2025, led by generative AI and data center build-outs, even as demand from PC and mobile markets may remain muted Managing Director | US Semiconductor Leader Jeroen serves as the US semiconductor leader at Deloitte Consulting LLP, leading the semiconductor industry segment within Deloitte's Technology, Media &amp; Telecom (TMT) practice. With over 20 years of experience, he brings extensive expertise in market strategy, operational excellence, talent management, and technology solutions to the semiconductor sector.As a strategist and change agent, he advises chief executives on navigating market shifts, combining immediate business improvements with a strategic transformation vision. He is a thought leader and author in supply chain management, championing the evolution from linear supply chains to digital supply networks.Jeroen's leadership is characterized by his ability to help technology companies capitalize on technological change, address supply chain challenges, and drive innovat</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955#mechatronics</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-73</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -877,17 +877,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955#software</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-48</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -900,17 +900,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-32</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -923,17 +923,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955#battery-and-charging</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-50</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -946,17 +946,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/strategy-15955#mobility-solutions</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-56</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -969,40 +969,40 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/moia-16058</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-55</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MOIA is a technology company of the Volkswagen Group and develops on-demand ridepooling services to redefine mobility for people in urban areas. To this end, MOIA works in partnership with cities and public transport companies. Since 2016, MOIA has developed a digital ecosystem for the entire value chain of ridepooling – from apps to algorithms to fleet management. MOIA has been offering its service in Hanover since 2018. The first city with over a million inhabitants, Hamburg, followed in 2019. Since 2021, MOIA has been working with Volkswagen Commercial Vehicles on a pilot project for autonomous ridepooling. Cities all over the world aim to make their transport more efficient and climate-friendly in the future. Autonomous ridepooling can be an important lever in achieving this goal. As a Mobility-as-a-Service (MaaS) provider, MOIA has the necessary expertise to develop an autonomous ridepooling system from an autonomous vehicle and a self-driving system. The goal is to develop an integrated autonomous ridepooling system in Hamburg for international scaling by 2025 and to open it up to customers after 2025. MOIA has also expanded its revenue model by introducing a licensing model for ridepooling and establishing the new business unit Mobility Analytics. Instead of operating exclusively directly in the end-customer market, MOIA will in future also offer cities, transport companies and municipal authorities all the necessary services from a single source to implement ridepooling in the context of public transport. In addition to service design and consulting, the new licensing model includes operating models, the fully integrated ridepooling and operating software required for this purpose, and, if applicable, the use of the MOIA brand. Digital thinking needs new minds – and a creative workplace. MOIA’s management team deliberately relies on small core teams. As an independent company within the Volkswagen Group, MOIA is agile enough to keep pace with the latest tech</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/moia-16058</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/moia-16058#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-31</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1015,17 +1015,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/moia-16058</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/moia-16058#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-61</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1038,40 +1038,40 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/anti-corruption-at-the-volkswagen-group-15708</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-71</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Anti-Corruption at the Volkswagen Group There is no place for corruption at Volkswagen! We have a clear zero-tolerance policy regarding active and passive corruption. . The Code of Conduct applies worldwide to all employees of the Volkswagen Group. We actively prevent corruption, white-collar crime, and other legal violations with additional binding guidelines that apply Group-wide and locally. Employees can find further information in the We take our responsibility to protect our company and our employees from corruption risks very seriously. Therefore, a fundamental part of our Compliance Management System is to continuously train and educate our workforce on preventing corruption. Modern web-based trainings, face-to-face trainings and a diverse range of dialog formats are used to raise awareness for the internal regulations and applicable laws and train them in dealing with corruption risks appropriately. For example, throughout the Group, all employees in the salaried areas complete mandatory trainings on corruption prevention. The same high standards also apply to our national and international business partners. We are convinced that ending corruption is a task best accomplished together. The Code of Conduct for Business Partners is an integral part of the contracts we have with our business partners. It formulates the expectations we have of our service providers, suppliers and sales partners when it comes to integrity and law-abiding behavior. In addition, we provide risk-based trainings to our business partners on the basics of Compliance and anti-corruption. Compliance is also an important component of the Merger &amp; Acquisitions processes and our cooperation with non-controlled shareholdings. As part of our Business Partner Due Diligence, we check the integrity of our business partners across the Group using a risk-based approach. Companies that do not meet the standards of our transparent review process are not considered as business partners of the Volksw</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/anti-corruption-at-the-volkswagen-group-15708</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/anti-corruption-at-the-volkswagen-group-15708#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-65</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1084,17 +1084,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/anti-corruption-at-the-volkswagen-group-15708</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/anti-corruption-at-the-volkswagen-group-15708#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#compounding</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1107,40 +1107,40 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/presentations-15715</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-5</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Here you will find presentations and speeches from past Volkswagen Group events. Volkswagen AG Pre-Close Call FY 2024 Agreement reached:  Volkswagen AG positions itself competitively  for the future</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/presentations-15715</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/presentations-15715#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-64</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1153,17 +1153,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/presentations-15715</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/presentations-15715#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-26</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1176,40 +1176,40 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/corporate-governance-15789</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-51</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Corporate governance stands for responsible, transparent corporate management and supervision that aims to add by long-term value. Good corporate governance is not only the basis for lasting corporate success but also a key condition for strengthening the trust of our shareholders, customers, employees and business partners, as well as the financial markets. Currently the Board of Management of Volkswagen AG comprises nine members. Each Board Member is responsible for one or more functions within the Volkswagen Group. Ethic, Compliance &amp; Risk Management Find out about how the Volkswagen Group applies compliance and Risk Management to protect the company. Articles of Association and Rules of Procedure Articles of Association (as at July 2024) Rules of Procedure for the Supervisory Board and its Committees Rules of Procedure for the Board A guideline for successful corporate governance: The german corporate governance code Corporate governance establishes a framework for managing and supervising a company. This includes its organization and values, and the principles and guidelines for its business policy, among other things. The German Corporate Governance Code contains recommendations and suggestions for good and responsible corporate management and supervision. It was prepared by the government commission established for the purpose on the basis of the material provisions and nationally and internationally accepted standards of corporate governance. As a rule, the government commission reviews the Code annually in light of current developments and updates it as necessary. The Board of Management and the Supervisory Board of Volkswagen AG base their work on the recommendations and suggestions of the German Corporate Governance Code. We believe that good corporate governance is a key condition for sustainably increasing the Company’s value. It helps strengthen the trust of our shareholders, customers, employees, business partners and investors in our work and meet th</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/corporate-governance-15789</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/corporate-governance-15789#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-35</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1222,17 +1222,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/corporate-governance-15789</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/corporate-governance-15789#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-76</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1245,40 +1245,40 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cookie-policy-15690</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-64</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Volkswagen AG uses various cookies on its websites. Cookies are small files containing configuration information that are stored on your end device. There are basically three categories of cookies. You can object to data processing described above by using the listed cookies and tracking tools at any time with effect for the future by changing your cookie settings in your browser or clicking on the following link and changing your currently set preferences in our Cookie Consent Manager: Within the categories described, different types of cookies are used. The most common types of cookies are explained below for your understanding: The following cookies are used on this website:</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cookie-policy-15690</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cookie-policy-15690#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-34</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1291,17 +1291,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cookie-policy-15690</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cookie-policy-15690#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-63</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1314,40 +1314,40 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/managers-transactions-15739</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-27</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Notifiable transactions in securities According to Article 19 of Market Abuse Regulation (MAR), members of management or supervisory bodies of issuers, as well as persons closely associated with them, are obligated to notify the issuer and the Federal Financial Supervisory Authority (BaFin) of every transaction conducted on their own account relating to the shares or other financial instruments linked thereto. The issuer shall ensure that the information is made public promptly. Until MAR became effective, comparable obligations were provided in Section 15a of the German Securities Trading Act (WpHG) in its old version. All transactions that are subject to disclosure requirements are listed, together with the information required by law (before July 3, 2016 pursuant to Section 15a of the WpHG; from July 3, 2016 pursuant to Article 19 of the MAR). Release according to Article 19 MAR Release according to Article 19 MAR Release according to Article 19 MAR Hiltrud Dorothea Werner (Purchase) Release according to Article 19 MAR Hiltrud Dorothea Werner (Sale - Correction of an execution error) Release according to Article 19 MAR</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/managers-transactions-15739</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/managers-transactions-15739#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-51</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1360,17 +1360,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/managers-transactions-15739</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/managers-transactions-15739#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-52</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1383,18 +1383,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en#cookie-manager</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-19</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -1402,40 +1406,40 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/livestream-media-16023</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-42</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>The 64th Annual General Meeting of Volkswagen Aktiengesellschaft took place on Wednesday, May 29, 2024 as a virtual Annual General Meeting without physical presence of shareholders. Volkswagen Group Media Night at the Beijing Auto Show 2024 The Beijing Auto Show took place from April 25 to May 5. The livestream of the Volkswagen Group Media Night took place on April 24 at 1:20 PM (CEST). Volkswagen Group Media Night Beijing - Livestream Volkswagen Group Media Night Beijing - Opening Opening video of the Volkswagen Group Media Night in Beijing on April 24, 2024 Volkswagen Group Media Night Beijing - Speech Oliver Blume Volkswagen Group Media Night Beijing - Speech Ralf Brandstätter Volkswagen Group Media Night Beijing - Volkswagen Brand Volkswagen Group Media Night Beijing - Audi Volkswagen Group Media Night Beijing - Lamborghini Volkswagen Group Media Night Beijing - Porsche Volkswagen Group Media Night Beijing - Bentley Volkswagen Group Media Night Beijing - Ducati Volkswagen Group Media Night Beijing - Xiaopeng Volkswagen Group Media Night Beijing - Showact Annual Report &amp; Full Year Results 2023 The Volkswagen Group Annual Press, Analyst and Investor Conference 2024 took place on March 13, 2024. Recording Volkswagen Group Annual Media Conference</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/livestream-media-16023</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/livestream-media-16023#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-76</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1448,17 +1452,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/livestream-media-16023</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/livestream-media-16023#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-77</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1471,40 +1475,40 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ad-hoc</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-43</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>This is an overview of ad hoc releases of the Volkswagen Group.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ad-hoc</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ad-hoc#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1517,17 +1521,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ad-hoc</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ad-hoc#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#resilience</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1540,40 +1544,40 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shareholder-structure-15951</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-30</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Number of outstanding shares (as at December 31, 2023) at 31. December 2023 as a percentage of subscribed capital* *All figures shown are rounded, so minor discrepancies may arise from addition of these amounts. Current voting rights distribution* (as at December 31, 2023) *All figures shown are rounded, so minor discrepancies may arise from addition of these amounts. Notifications of changes in voting rights in accordance with the Wertpapierhandelsgesetz (WpHG – German Securities Trading Act) are published on our website under Reporting of Voting Rights according to WpHG</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shareholder-structure-15951</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shareholder-structure-15951#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-38</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1586,17 +1590,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shareholder-structure-15951</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shareholder-structure-15951#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-14</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1609,40 +1613,40 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-18401</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-70</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Volkswagen Group in the international capital markets International capital markets are of particular importance for the funding strategy of the Volkswagen Group as they provide liquidity at favorable conditions. We are active in capital markets through the issue of Commercial Papers term debt), Medium Term Notes (medium- , Asset Backed Securities (Securitization) and other financial instruments. Our Debt Issuance Programs in various countries and currencies help to increase the flexibility of these measures. In case of any questions regarding Fixed Income and ESG topics please contact: Statement about the Handling of Sanctions and Embargoes at Volkswagen Group Declaration on Client Classification and Consents under Directive 2014/65/EU ("MiFID II") 2012-07-04 Based on current knowledge neither Volkswagen Aktiengesellschaft and its fully consolidated subsidiaries established in the European Union that are non-financial counterparties (as defined in EMIR) nor Volkswagen Aktiengesellschaft's fully consolidated subsidiaries established outside the European Union that would constitute non-financial counterparties (as defined in EMIR) if they were established in the European Union would be subject to the clearing obligation pursuant to EMIR in respect of its OTC derivatives (as defined in EMIR).</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-18401</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-18401#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#signposts</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1655,17 +1659,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-18401</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fixed-income-18401#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-57</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1678,40 +1682,40 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/porsche-16022</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-49</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Porsche is a brand for people who follow their dreams. This is the guiding principle which the company has in its genes, as company founder Ferry Porsche already said: “In the beginning, I looked around but couldn’t find the car I dreamed of. So I decided to build it myself.” Even in a world that is becoming increasingly globalised, interconnected and volatile, dreams have not lost their appeal. On the contrary. Porsche sees the current challenges as an opportunity - with the declared aim of successfully shaping the transformation. This is what the Corporate Strategy 2030 stands for, and sustainable action is firmly anchored in Porsche's vision for the future. The sports car manufacturer wants to offer its customers a comprehensive product experience, operate profitably and be a good employer. Porsche stands for freedom and independence - and the inner drive to achieve one's goals. Customers all over the world experience the fascination of Porsche. The heart of the brand still beats in Stuttgart-Zuffenhausen. Series production of the first Porsche models once began at the company's headquarters and largest site. Today, the iconic 911 sports car and the brand's first all-electric sports car, the Taycan, are built here. Weissach, also near Stuttgart, is home to the Porsche AG development centre. This is where engineers and designers work on the technologies and vehicle concepts of tomorrow. The development of new production and motorsport vehicles also takes place in Weissach and Flacht. "Born in Flacht" has long since become a sign of quality for lovers of high-performance GT sports cars. Porsche AG's second production site in Germany is the Leipzig plant. The Panamera, the Macan and the new Macan electric are produced in Saxony. The Leipzig site is also home to the second German Porsche Experience Centre, which offers customers and fans of the brand the opportunity to experience the fascination of Porsche sports cars at first hand away from the PEC in Hockenheim. An</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/porsche-16022</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/porsche-16022#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-46</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1724,17 +1728,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/porsche-16022</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/porsche-16022#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-78</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1747,40 +1751,40 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/memberships-17454</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-75</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group is an active partner in global, national and topic-specific sustainability networks on various levels and projects. We are participant in the United Nations Global Compact (UNGC), the world's largest initiative for sustainable corporate governance. Together with our brands, we are engaged in national and international key initiatives and contribute to advancing the implementation of the UN Sustainable Development Goals (SDGs). The Volkswagen Group is a partner of the World Economic Forum (WEF) and an active member of the World Business Council for Sustainable Development (WBCSD). National Sustainability Networks At national level, we are a member of the Forum for Sustainable Development of German Business (econsense), the sustainability network of German business, and the Value Balancing Alliance (VBA). In the VBA, we are actively involved in the development of uniform evaluation standards for impact measurement and the financial accounting of sustainability impacts. Topic-specific sustainability networks Information on memberships and commitments regarding supply chains can be found at: Information on memberships and commitments regarding diversity can be found at: Further memberships can be found in the appendix to the principles and guidelines for public affairs:</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/memberships-17454</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/memberships-17454#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-36</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1793,17 +1797,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/memberships-17454</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/memberships-17454#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-35</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1816,40 +1820,40 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-strategy-18157</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-13</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>is marked by unprecedented global challenges and uncertainties. Recognizing our role as the Volkswagen Group, we understand the imperative to actively solutions. Our commitment is deeply rooted in our organization, embraced by and driven by collective effort. As of future mobility, we recognize our duty to for the benefit of nature and society becoming a nature and society positive mobility provider propels our new regenerate+ strategy. In addition to the seven Volkswagen , which form the foundation of the Group's values and the basis of our shared corporate culture, we are guided by the following sustainability principles: We concentrate our efforts on four dimensions where we see the potential to achieve positive change for nature, our people, society, and our business. We want to make the desired positive effect of our actions within the framework of the four dimensions measurable and comprehensible We are not bound by static methodologies; rather, we continually refine and adapt our approach made in isolation but are informed by thorough internal and external evaluation and validation. Achieving this requires all stakeholders within the Volkswagen Group. We recognize that we cannot do this The complexity of global challenges goes beyond the Volkswagen Group's That is why even stronger cooperation is needed – between our company and our employees, our partners and society. We want to intensify these partnerships by nurturing a culture of respectful dialogue and openness. Through this collaborative approach, we seek to accelerate the positive impact we have on others to join us on this journey. of our organization - encompassing every division, brand, region, production site and It extends to all stakeholders along our supply chain , our dealers, all people who have an influence on us or whom we of this endeavor, we understand that management in isolation is not rusted partnerships and constructive collaboration generations with a future worth living in, we avoida</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-strategy-18157</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-strategy-18157#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-74</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1862,17 +1866,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-strategy-18157</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-strategy-18157#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-39</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1885,40 +1889,40 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-ipo-of-porsche-ag-16100</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-45</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Information Relating to the IPO of Porsche AG</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-ipo-of-porsche-ag-16100</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-ipo-of-porsche-ag-16100#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-33</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1931,17 +1935,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-ipo-of-porsche-ag-16100</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-ipo-of-porsche-ag-16100#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1954,40 +1958,40 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-price-monitor-16020</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-8</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>The interactive tool allows you to analyze and graph the prices of the Volkswagen AG ordinary and preference shares.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-price-monitor-16020</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-price-monitor-16020#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2000,17 +2004,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-price-monitor-16020</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-price-monitor-16020#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-29</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2023,40 +2027,40 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/press-releases</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-44</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>This is an overview of press releases of the Volkswagen Group. To stay informed, users can subscribe to the press releases of Volkswagen Group via e-mail service.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/press-releases</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/press-releases#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-5</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2069,17 +2073,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/press-releases</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/press-releases#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-44</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2092,40 +2096,40 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ratings-15756</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-25</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Credit ratings conducted on a regular basis by Fitch, Moody's, Standard &amp; Poor's Ratings Services, DBRS and provide our investors with additional transparency. *Short-Term Rating of DRBS Morninstar only applicable for Volkswagen Credit Canada, Inc. / Crédit VW Canada, Inc. Financial Services AG and Volkswagen Bank GmbH have an individual rating. More information about the ratings of Volkswagen Financial Services AG can be found at the following link: Investor Relations of Volkswagen Financial Services AG Moodys Credit Opinion Volkswagen AG 10/28/024 Moody's Rating Action Volkswagen AG PR 10/11/2024 Fitch Volkswagen AG Press Release 08/14/2024 S&amp;P Research Update on Volkswagen AG 01.11.2023 S&amp;P Release on  VW International Finance Hybrid Securities 29/08/2023 S&amp;P Ratings Direct Bulletin Hybrids Volkswagen AG 07/28/2023</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ratings-15756</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ratings-15756#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-69</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2138,17 +2142,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ratings-15756</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ratings-15756#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-41</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2161,40 +2165,40 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/risk-management-16103</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-63</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Companies take risks. That is part of every business activity. The important thing is to deal with them responsibly. We are convinced that only those who identify opportunities and risks at an early stage and actively deal with them will achieve sustainable success. Our risk management system focuses on corporate and divisional goals. We manage risks in our business processes with the internal control system. Both systems are based on the internationally recognized COSO framework. In this way we aim to cover all areas of risk as comprehensively as possible. To this end we operate a risk quarterly process which focuses on acute risks. We keep an eye on process-related risks with the annual standard ICS control process. The business continuity management system provides the framework for continuing critical business processes in the event of disruptions.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/risk-management-16103</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/risk-management-16103#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2207,17 +2211,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/risk-management-16103</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/risk-management-16103#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2230,18 +2234,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-9</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -2249,17 +2257,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/volkswagen-group-interim-report-january-september-2025-330</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2272,17 +2280,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/annual-general-meeting-2025-328/ics</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-21</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2295,17 +2303,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-37</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2318,17 +2326,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/kepler-german-corporate-conference-333</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-67</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2341,17 +2349,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/fy-preclose-call-334</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-60</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2364,17 +2372,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/volkswagen-group-interim-report-january-september-2025-330/ics</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-31</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2387,17 +2395,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/volkswagen-group-annual-media-analyst-and-investor-conference-2025-327</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-59</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2410,17 +2418,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/half-yearly-financial-report-2025-331/ics</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-18</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2433,17 +2441,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-54</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2456,17 +2464,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/half-yearly-financial-report-2025-331</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-32</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2479,17 +2487,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/commerzbank-oddo-german-investment-seminar-332</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-68</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2502,17 +2510,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/volkswagen-group-interim-report-january-march-2025-329/ics</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-40</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2525,17 +2533,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/volkswagen-group-interim-report-january-march-2025-329</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-74</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2548,17 +2556,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/events/volkswagen-group-annual-media-analyst-and-investor-conference-2025-327/ics</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-57</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2571,40 +2579,40 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/disclaimer-europcar-offer-16109</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-4</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>THE MATERIALS CONTAINED HEREIN ARE NOT FOR RELEASE, PUBLICATION OR DISTRIBUTION, DIRECTLY OR INDIRECTLY, IN WHOLE OR IN PART, INTO OR WITHIN THE UNITED STATES, ITS TERRITORIES AND POSSESSIONS (INCLUDING PUERTO RICO, THE U.S. VIRGIN ISLANDS, GUAM, AMERICAN SAMOA, WAKE ISLAND AND THE NORTHERN MARIANA ISLANDS), ANY STATE OF THE UNITED STATES AND THE DISTRICT OF COLUMBIA) OR ANY OTHER JURISDICTION WHERE TO DO SO WOULD CONSTITUTE A VIOLATION OF THE RELEVANT LAWS OR REGULATIONS OF SUCH JURISDICTION. The following information is exclusively intended for persons who are not residents of the United States and who are not physically located in the United States. The information contained herein does not constitute an offer to acquire securities in the United States or in any jurisdiction in which such an offer would be unlawful. The public tender offer referenced in the following information will not be made, directly or indirectly, in or into the United States, or by use of the United States mails, or by any means or instrumentality (including, without limitation, the post, facsimile transmission, telex and telephone or electronic transmission by way of the internet or otherwise) of United States commerce, or of any facility of a United States national securities exchange. The offer cannot be accepted by any such use, means or instrumentality or from within the United States. Making press announcements and other documents available in electronic format does not constitute an offer to acquire securities. Further, it does not constitute a recommendation by us or any other party to sell securities. The information on the pages that follow may contain forward-looking statements. Any statement other than a statement of historical fact is a forward-looking statement. Actual results may differ materially from those expressed or implied by any forward-looking statement. Green Mobility Holding does not undertake any obligation to update or revise any forward-looking statements, wheth</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/disclaimer-europcar-offer-16109</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/disclaimer-europcar-offer-16109#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-46</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2617,17 +2625,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/disclaimer-europcar-offer-16109</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/disclaimer-europcar-offer-16109#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-6</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2640,40 +2648,40 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ducati-16007</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-62</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Founded in 1926 in Bologna (Italy), Ducati builds premium motorcycles characterized by powerful engines, distinctive design, and innovative technology. Since 2012 Ducati is part of the Volkswagen Brand portfolio directly controlled by Audi. Style, Sophistication and Performance are the core values of the Ducati brand. Ducati realizes the dream of every Ducatista by crafting motorcycles that are the purest expression of refined engineering, sensual beauty, and unmistakable Italian style, with constant attention to the highest standards of quality. This combination shines through the lines of each motorcycle, in which lightness, technology and high performance are at the service of all motorcyclists eager to live an incredible experience on two wheels. The company’s wide range of motorcycles covers the main market segments with the following model families: DesertX, Diavel, XDiavel, Hypermotard, Monster, Multistrada, Panigale, Streetfighter, SuperSport and Scrambler Ducati. Since 2019 Ducati has also integrated high-spec e-MTBs and city e-bikes in its product line. Ducati has racing in its DNA and competes with official teams in the MotoGP and WorldSBK Championships. Until 2026, Ducati is the sole official supplier of motorbikes for the FIM Enel MotoE™ World Cup, the electric class of the MotoGP World Championship. In addition, starting from 2024 Ducati officially enters the world of off-road by debuting in the Italian Motocross Championship, with the aim of creating a complete range of off-road engines and motorcycles which will gradually become part of the Ducati family.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ducati-16007</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ducati-16007#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-13</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2686,17 +2694,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ducati-16007</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ducati-16007#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-37</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2709,18 +2717,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-details</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-47</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -2728,17 +2740,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-details</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-details#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-65</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2751,17 +2763,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-details</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/share-details#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-20</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2774,40 +2786,40 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-technology-16016</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-34</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Group Technology is made up of the four divisions Battery, Charging &amp; Energy, Components and Platform Business. Through the NEW AUTO strategy, the Volkswagen Group has made the topics of Battery and Charging its core business. Under the leadership of Board member Thomas Schmall, Volkswagen Group Technology combines activities across the Group within these divisions – thereby playing a key role in the electric mobility strategy. Group Technology’s duties include building up global battery cell production via PowerCo SE, as well as expanding the worldwide quick-charging network through the brands Elli, Electrify America and CAMS. Group Technology comprises a total of four pillars. In addition to Battery and Charging &amp; Energy, Volkswagen Group Components is a technology supplier of innovative technical components, while Platform Business is responsible for cooperation with external partners such as Ford or Mahindra. This makes Group Technology a strong driver on the path toward sustainable, future-fit mobility, and opens up new, highly attractive profit pools for the Group. The four divisions of Group Technology In more than 60 plants at 45 sites our colleagues are making an important contribution to the competitive position and future sustainability of the Volkswagen Group, its brands, and products with technical components such as the electric drive, electric motor, gearbox, as well as axles and steering systems. The Volkswagen Group also shares its leading platforms and components with external companies. Its strategic partners include the Ford Motor Company and the Indian automotive manufacturer, Mahindra. You can find more information about Platform Business here: VW Platform Business (vw-platform-business.com) Elli, Electrify America and CAMS, consolidate all Volkswagen Group activities relating to charging infrastructure, smart energy solutions, charging hardware, and charging services. In addition to home chargers and the flexible fast-charging station Flexpole</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-technology-16016</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-technology-16016#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-72</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2820,17 +2832,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-technology-16016</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-technology-16016#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-21</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2843,18 +2855,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en#content</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-7</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -2862,40 +2878,40 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-figures-15801</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-49</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>ESG indicators reflect the Volkswagen Group’s measurable performance and progress on environmental, social and governance matters. The relevant indicators are presented below. ESG Conference - Human Rights Officer ESG Conference - Supply Chain Due Diligence</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-figures-15801</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-figures-15801#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-42</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2908,17 +2924,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-figures-15801</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-figures-15801#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-58</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2931,40 +2947,40 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/debt-issuance-programmes-15788</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-17</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Debt Issuance Programs are covering several issues on a roll over basis. The contractual program amount of such a program may not necessarily be identical with the current utilization. Despite the use of standardized documentation for each transaction, there is the greatest flexibility as to the terms and conditions of a particular issue. The Volkswagen Group has various Debt Issuance Programs in different countries and currencies. The key characteristics of the largest Debt Issuance Programmes are listed below. EUR 30.0bn Debt Issuance Programme EUR 15.0bn Multi-Currency Commercial Paper Programme Volkswagen Financial Services Programmes The programmes of Volkswagen Financial Services AG can be found under the following link: Volkswagen Financial Services AG</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/debt-issuance-programmes-15788</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/debt-issuance-programmes-15788#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-16</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2977,17 +2993,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/debt-issuance-programmes-15788</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/debt-issuance-programmes-15788#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-25</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3000,18 +3016,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cart</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-68</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -3019,17 +3039,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cart</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cart#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-4</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3042,17 +3062,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cart</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cart#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-22</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3065,40 +3085,40 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/nature-18174</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-54</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>It is at the heart of our sustainability strategy to go beyond the mere reduction of emissions. The vision is to foster a positive influence on both people and nature, aiming to make a regenerative contribution. The Volkswagen Group wants to become a net-carbon-neutral to the principles outlined in the Paris Climate Agreement and aligns its own activities with the 1.5-degree target carbon neutrality by 2050. As part of this commitment, we have set footprint during the use phase of our passenger cars and light commercial vehicles by 2030, compared The Volkswagen Group is accelerating its efforts to achieve net carbon neutrality at all production sites worldwide by 2040, 10 years earlier than originally planned. Among other things, greenhouse gas emissions are to be reduced by 90% by 2040 compared to 2018. The Volkswagen Group aims to achieve this, for , by converting its energy supply and increasing energy efficiency. By 2030, 100 percent of the external electricity by all sites is to come from CO -neutral sources. Currently, 100 percent of the external electricity supplied to the European plants already comes from renewable energies. Our goal is to achieve zero-impact status for our manufacturing plants for passenger cars and light commercial vehicles by 2050. Compared to 2010, we have reduced water consumption by 24 percent, waste by 75 percent and VOC emissions by 68 percent per vehicle by 2023. The goal to reduce total environmental impact of our production sites for cars by 37.5 percent by 2030, 69 percent by 2040 and 100 pe The Volkswagen Group is working to continuously reduce The finite nature of natural resources and the consequences of resource extraction make the development of a circular economy a key sustainability . The focus here lies primarily on conserving resources. For the first time, the Volkswagen Group has set itself Group-wide of materials from recycled products. In the ID. family, headliners, fabrics, carpets, seats, door trim panels and decor</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/nature-18174</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/nature-18174#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-15</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3111,17 +3131,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/nature-18174</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/nature-18174#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-47</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3134,40 +3154,40 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-17302</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-56</t>
+        </is>
+      </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Volkswagen Group with 9 million deliveries after strong fourth quarter On January 14, 2025, the Volkswagen Group published the deliveries for October to December 2024. Agreement reached: Volkswagen AG positions itself competitively for the future Following intensive negotiations between Volkswagen AG, IG Metall and the Works Council, a joint agreement entitled ‘Zukunft Volkswagen’ [Future Volkswagen] has been concluded.  The company and the Works Council are thereby jointly positioning Volkswagen AG for sustainable success. To this end, the company is realigning production capacities at Volkswagen AG's German locations. To this end, the company is realigning production capacities at Volkswagen AG's German locations. It is creating the conditions for a reduction in labour costs of €1.5 billion per year at the collectively agreed level with an agreement on the company wage settlement until 2030. The short-term reduction in labour costs and the agreed structural measures through capacity reduction and a decrease in development costs will lead to cost savings of over €4 billion per year in the medium term. In addition, a reduction in capacity of 734,000 units across the German plants is planned. This will enable Volkswagen AG to lay the foundation for important investments in future products through to 2030. The structural realignment of the company at an operational and collective level will create the conditions for achieving the return-on-sales target for the Volkswagen Passenger Cars brand in the medium term. Volkswagen Group reviews sales model in selected European markets Today, the Volkswagen Group has informed its retail partners in selected European markets that it will initiate a joint review of its sales model. While the ‘Direct to Customer’ approach with a Full Agency remains the long-term ambition, changing framework conditions might require changes in the short- to mid-term to ensure the best possible customer experience. Due to the slower transition to el</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-17302</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-17302#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-43</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3180,17 +3200,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-17302</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-17302#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3203,40 +3223,40 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-69</t>
+        </is>
+      </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>On this page you can find the Annual Reports as well as the Financial Reports of the Volkswagen Group and Volkswagen Aktiengesellschaft. Interim Report January - September 2024 Half-Yearly Financial Report 2024 Interim Report January - March 2024 Consolidated Financial Statements of Volkswagen Aktiengesellschaft as at December 31, 2023 Publication pursuant to sec. 325 of the German Commercial Code Annual Financial Statements of Volkswagen Aktiengesellschaft as at 31.12.2023 Publication pursuant to sec. 325 of the German Commercial Code All facts and figures in our Online Report 2023. Consolidated Financial Statements of Volkswagen Aktiengesellschaft as at December 31, 2022 Publication pursuant to sec. 325 of the German Commercial Code Annual Financial Statements of Volkswagen Aktiengesellschaft as at 31.12.2022 Publication pursuant to sec. 325 of the German Commercial Code All facts and figures in our Online Report 2022. Annual Financial Statements of Volkswagen AG 2021 Shareholdings of Volkswagen AG and Volkswagen Group as at 31.12.2021 All facts and figures in our Online Report 2021. Annual Financial Statements of Volkswagen AG 2020 Shareholdings of Volkswagen AG and the Volkswagen Group as of December 31, 2020 All facts and figures in our Online Report 2020. Annual Financial Statements of Volkswagen AG 2019 Shareholdings of Volkswagen AG and the Volkswagen Group as of December 31, 2019 All facts and figures in our Online Report 2019. Annual Financial Statements of Volkswagen AG 2018 Shareholdings of Volkswagen AG and the Volkswagen Group as of December 31, 2018 All facts and figures in our Online Report 2018. Annual Financial Statements of Volkswagen AG 2017 Shareholdings of Volkswagen AG and the Volkswagen Group as of December 31, 2017 All facts and figures in our Online Report 2017. Annual Financial Statements of Volkswagen AG 2016 Shareholdings of Volkswagen AG and the Volkswagen Group as of December 31, 2016 All facts and figures in our Online Report 2016. An</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2018</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-29</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3249,17 +3269,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2020</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-10</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3272,17 +3292,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2021</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-58</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3295,17 +3315,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2022</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-11</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3318,17 +3338,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2019</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-55</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3341,17 +3361,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-19</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3364,17 +3384,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2014</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-12</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3387,17 +3407,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2015</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-48</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3410,17 +3430,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2017</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-77</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3433,17 +3453,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2024</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-38</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3456,17 +3476,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-41</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3479,17 +3499,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2016</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-23</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3502,17 +3522,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-reports-18134#2023</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-28</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3525,40 +3545,40 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-53</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group Sustainability Report 2023 This combined Nonfinancial Report 2023 complies with sections 289b para. 3 and 315b para. 3 of the German Commercial Code (Handelsgesetzbuch – HGB). The Nonfinancial Report serves to meet the disclosure requirements of the German CSR Directive Implementation Act (CSR-Richtlinie-Umsetzungsgesetz – CSR-RUG). Essentially, the Nonfinancial Report comprises information on the aspects of employee matters, environmental matters, social matters, respect for human rights as well as combating corruption and bribery. In terms of content, the Group Sustainability Report was prepared in compliance with the GRI Standards of the Global Reporting Initiative (GRI). A separate GRI content index is available under "Downloads." Group Sustainability Report 2023 Association Climate Review 2023 Responsible Raw Materials Report 2023 Group Sustainability Report 2022 There is more on the subject of ESG in the section</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808#archive-download</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-23</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3571,17 +3591,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808#the-volkswagen-group-sustainability-report-2023</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-73</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3594,17 +3614,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-7</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3617,17 +3637,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-15808#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-40</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3640,40 +3660,40 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/terms-and-conditions-of-use-15697</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-9</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The provider of these websites is Volkswagen AG, Berliner Ring 2, 38440 Wolfsburg, registered in the Commercial Register of the District Court of Braunschweig under number HRB 100484 (Volkswagen AG). All information on the websites of Volkswagen AG has been carefully checked. Volkswagen AG strives to see to it that the content of these websites is up-to-date and accurate. However, no warranty or guarantee of completeness, accuracy, up-to- , or constant availability is given with respect to these websites. Insofar as advice or recommendations are given on the websites of Volkswagen AG, Volkswagen AG shall – without prejudice to any responsibility arising under the laws of contract, tort, or legal provisions of another nature – not be obligated to compensate for any harm or loss suffered by following the advice or recommendation. Volkswagen AG may – at any time, without notice, and at its discretion – change the content of its websites or discontinue them entirely. Volkswagen AG is under no obligation to keep the contents of these websites current and up-to-date at all times. Volkswagen AG assumes no responsibility for the contents and the availability of third party websites that are accessible through external links. Volkswagen AG expressly dissociates itself from any content potentially giving rise to liability, criminal or otherwise, or that is contrary to good morals. Volkswagen AG shall have no liability for the content of third party websites. Regarding all claims for damages or reimbursement for expenses that are based on the contents of its own websites and violations of duties for which it is legally responsible, Volkswagen AG shall be liable for its ordinary negligence in breaching essential contractual duties, whereby such liability shall be limited to the damages that are both foreseeable and typical. All other liability is excluded for breaches of duty involving no more than ordinary negligence. The preceding liability disclaimer does not apply to cases </t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/terms-and-conditions-of-use-15697</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/terms-and-conditions-of-use-15697#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3686,17 +3706,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/terms-and-conditions-of-use-15697</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/terms-and-conditions-of-use-15697#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-60</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3709,40 +3729,40 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#chip</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Respect for human rights is of paramount importance to the Volkswagen Group. We are convinced that sustainable economic activity is only possible by acting ethically and with integrity. Within the framework of our entrepreneurial activities we are fully committed to our responsibility regarding human rights. The Group Board and the European Group and Global Workers Council have established this in the Volkswagen Group's joint Declaration on Social Rights, Industrial Relations as well as Business and Human Rights, in short the Social Charter. We confirm our commitment to major international agreements and declarations, in particular the International Bill of Human Rights and the core labour standards of the International Labour Organization (ILO). Our entrepreneurial activities follow the UN Guiding Principles on Business and Human Rights (UN Global Compact), which determine the most important cornerstones for our actions. As the very first company listed in the German stock index, Volkswagen AG created the independent function of a Human Rights Officer in August 2022. This position serves as the first point of contact for all human rights-related issues from authorities, NGO’s and the public. One of the substantial tasks of the Human Rights Officer is to monitor the adequacy and effectiveness of risk management under the obligations of the German Act on Corporate Due Diligence Obligations in Supply Chains (known as the Lieferkettensorgfaltspflichtengesetz, abbreviated as LkSG), carrying out the function provided by § 4 (3) LkSG, by exercising risk-based controls. Core Tasks and Obligations under the LkSG In order to avoid both Human Rights and environmental risks, the LkSG specifies several obligations concerning due diligence that companies must adhere to. These obligations include, among others, the implementation of risk analyses, the establishment of preventive measures, the adoption of remedial actions once legal violations have been identified as well as the e</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108#policy-statement-of-volkswagen-ag</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#generative</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3755,17 +3775,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-8</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3778,17 +3798,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/human-rights-16108#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3801,40 +3821,40 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-performance-and-reporting-16040</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-14</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>ESG (Environmental, Social, Governance) refers to the basic principles of doing business sustainably. The Volkswagen Group’s stakeholders (e.g., investors, employees, customers and NGOs) have high expectations of the company’s ESG performance, including in action areas such as decarbonization and integrity. ESG performance thus directly affects the Group’s market capitalization and cost of capital as well as, for example, its attractiveness as an employer. The aim of one specific Group initiative within the Group strategy 2030 is therefore to improve the Group’s ESG performance in order to, among other things, ensure its investment capability and optimize its cost of capital.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-performance-and-reporting-16040</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-performance-and-reporting-16040#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-70</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3847,17 +3867,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-performance-and-reporting-16040</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-performance-and-reporting-16040#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-45</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3870,40 +3890,40 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/integrity-and-compliance-15705</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-66</t>
+        </is>
+      </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>For us, integrity means taking a stance. Integrity acts as an inner compass to do the right thing out of our own conviction – regardless of economic or social pressure. guidance and support, integrity is firmly anchored in our processes and decisions. In this way, we . This strengthens our trustworthiness and makes us even more attractive to our investors, We are convinced that we can only be sustainably successful as a company if we all act with integrity and in compliance with the rules. why we have made integrity and compliance corporate strategy and selected as one of six focus topics of our sustainability program. We are aware that violations of laws, rules and regulations have consequences. This is another we want to be a role model in this area. We have set out the ethical basis for our actions in our and rules. We promote trusting, and its employees with clear rules and clear attitudes. However, the provision and application of AI also comes with a great responsibility. The Volkswagen Group has created as a basic orientation for the ethical use of AI systems. These are based on the cross-brand and value-based foundation of the Code of Conduct. Ethical Principles for Artificial Intelligence Volkswagen Group Ethical Principles for AI based on the cross-brand and value-based foundation of the Code of Conduct. The Code of Conduct of the Volkswagen Group The Volkswagen Group Code of Conduct, OUR CODE, is the ethical and values-based foundation for acting with integrity and in compliance with the rules in our Group. It serves as a binding guideline for all employees in all brands and companies – all over the world. Code of Conduct for Business Partner English and Spanish version · The Code of Conduct for Business Partners describes what we expect from our partners. We want to know about and prevent possible misconduct. Every information helps. Anti-Corruption at the Volkswagen Group There is no place for corruption at Volkswagen! We have a clear zero-tolerance pol</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/integrity-and-compliance-15705</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/integrity-and-compliance-15705#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-33</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3916,17 +3936,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/integrity-and-compliance-15705</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/integrity-and-compliance-15705#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-6</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3939,40 +3959,40 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/lamborghini-16062</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-67</t>
+        </is>
+      </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Founded in 1963, Automobili Lamborghini is headquartered in Sant’Agata Bolognese, in Northern Italy. Lamborghini currently produces two super sports car models, the V12-powered plug-in hybrid Revuelto, launched in 2023, and the V10-powered Huracán, launched in 2014, along with the Super-SUV Urus powered by a twin-turbo V8 engine, launched in 2017. With 180 dealerships throughout the world, the company has delivered 9,233 cars to customers in 2023. Over half a century Automobili Lamborghini created a continuous series of dream cars, including the 350 GT, Miura, Espada, Countach, Diablo, Murciélago, as well as limited editions such as the Reventón, Sesto Elemento, Veneno and the Centenario. With the Lamborghini Sián FKP 37 unveiled in 2019, and the Lamborghini Countach LPI 800-4 presented in 2021, both few-offs built of only 82 and 112 units respectively, the company delivered unique new hybrid technologies, featuring the world-first application of a supercapacitor for hybridization, new materials technology, and unsurpassed Lamborghini performance. The Revuelto now brings the hybridization into the series production, being just the first of the three model lines to become plug-in hybrid, with the other two following in 2024. Lamborghini will then be the first super sports car manufacturer to have completely hybridized its entire model range.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/lamborghini-16062</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/lamborghini-16062#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-75</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3985,17 +4005,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/lamborghini-16062</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/lamborghini-16062#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-53</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4008,40 +4028,40 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/diversity-and-inclusion-16087</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-78</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Without diversity, the Volkswagen Group would be at a standstill – it’s no wonder with around 684,000 employees, around 114 production sites and more than 150 markets worldwide. That’s why “We live diversity” is one of our seven . This commitment to Diversity &amp; Inclusion (D&amp;I) forms a central foundation for the economic success of our company, and is firmly anchored in both As a company that’s reinventing itself and rethinking the future of mobility, it is essential for the Volkswagen Group that all its employees are able to contribute their full potential. Only then can we ensure that we remain an attractive employer for our employees around the world and for new talent. As such we firmly believe in the innovativeness of diverse ways of thinking and experiences. In order to accelerate our transition to a world-leading software-oriented provider of sustainable mobility, we are systematically promoting diversity and have committed to continuously ensuring an inclusive culture at all levels, in all areas and all processes. We are taking this path together with all our brands, companies and international sites, because we know this task takes teamwork. That’s what will make us strong for the future! Our diversity goals: Binding and transparent Diversity is an integral part of our DNA. As such it not only drives our cultural transformation, it is also an important factor for economic success. The Volkswagen Group has been setting goals to increase diversity in management with corresponding key figures in the Diversity Index since 2017. The Index is part of our corporate strategy and is collected for the entire Volkswagen Group with its active workforce. In its current version, the Diversity Index addresses the proportion of women in management – consisting of the management level, upper management level and top management level, as well as the internationalization of top management. As a strategic key figure, it is directly relevant to remuneration for the Group’s Board</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/diversity-and-inclusion-16087</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/diversity-and-inclusion-16087#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-28</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4054,17 +4074,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/diversity-and-inclusion-16087</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/diversity-and-inclusion-16087#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-39</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4077,40 +4097,40 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-contacts-15997</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-24</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Please direct all press inquiries to the Volkswagen Group’s media contacts listed below. Further media contacts can be found on the press websites of our brands. If you have questions about your own vehicle or service topics, or questions about marketing, advertising or sponsoring please contact our Volkswagen Dialog Center: kundenbetreuung@volkswagen.de.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-contacts-15997</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-contacts-15997#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-22</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4123,17 +4143,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-contacts-15997</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-contacts-15997#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-71</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4146,40 +4166,40 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/seat-15849</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-61</t>
+        </is>
+      </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>SEAT is one of Spain's most symbolic and recognizable brands. Founded over 70 years ago, it was SEAT that put the country on wheels and made an impact on millions of people. Today, the Spanish brand is stronger than ever, offering the younger generation and first-time car owners a dynamic driving experience at an affordable price, without compromising on quality. From its beginning as Spain’s first car manufacturer, SEAT has emerged as one of the most design-conscious automakers in the world. The brand has come a long way to produce today's vehicles with an unmistakable look and state-of-the-art drive concepts: “Created in Barcelona” – the Catalan metropolis is a source of inspiration for SEAT and thus integral to every design from the brand. SEAT S.A. is the only car maker to design, develop, manufacture and sell cars in Spain. The multinational company is based in Martorell (Barcelona) and sells vehicles under the CUPRA and SEAT brands, giving drivers the best of both worlds: cars with efficient combustion engines, mild and plug-in hybrids and 100% electric vehicles. SEAT S.A. employs more than 14,000 people and has three production centers – Martorell, El Prat de Llobregat and Barcelona – where the SEAT Ibiza, the SEAT Arona, the Leon family and the CUPRA Formentor are made. SEAT S.A. also produces the CUPRA Born and the SEAT Tarraco in Germany and the Ateca family in the Czech Republic. SEAT S.A. is now experiencing the biggest industrial, organizational and cultural upheaval in its history with the transformation to electromobility. The company is playing a leading role in making Spain a center for electric vehicles in Europe and is investing €10 billion in the country's electrification as part of the Future: Fast Forward project, together with the Volkswagen Group, PowerCo and its partners. SEAT S.A. heads the Electric Urban Car Family cluster within the Core Brand Group, in which models from various sister brands will also be produced in Spain alongside CUPRA</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/seat-15849</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/seat-15849#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-27</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4192,17 +4212,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/seat-15849</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/seat-15849#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-11</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4215,40 +4235,40 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-financial-services-16056</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-59</t>
+        </is>
+      </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Volkswagen Financial Services are a fundamental part of the Volkswagen Group. Together with the Group brands, the company develops a mobility platform that gives all customers fast, digital and flexible access to mobility – from hours, days and weeks to months and years. Volkswagen Financial Services is the Volkswagen Group's financial and mobility services provider. In addition to direct banking and dealer financing, the company's core business mainly comprises vehicle financing and leasing, rentals and car subscriptions, insurance activities, fleet management, and other mobility services. The Volkswagen Financial Services Group also includes Volkswagen Group Fleet International, which coordinates, manages and is responsible for the fleet customer business in the Volkswagen Group for all countries and brands. This includes all brands active in this field, both nationally and internationally. Volkswagen Financial Services have a long overall history. With the founding of Volkswagen Versicherungsdienst in 1948, the Volkswagen Group's first financial service was introduced to the world at an early stage. In the years that followed, the establishment and expansion of the banking, leasing and services business laid the foundation for current and future business success. Today, Volkswagen Financial Services acts as a global sales driver for the brands of the Volkswagen Group and supports them in strengthening customer loyalty by offering a wide range of mobility services. As part of the Group's strategy, the aim is to offer all customers mobility service solutions ranging from a few hours to several years via a uniform platform – simply, transparently and digitally. In doing so, Volkswagen Financial Services is consistently delivering on the brand promise of being "The Key to Mobility". Volkswagen Group Fleet International</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-financial-services-16056</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-financial-services-16056#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-50</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4261,17 +4281,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-financial-services-16056</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-financial-services-16056#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-52</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4284,40 +4304,40 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/privacy-policy-15677</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-62</t>
+        </is>
+      </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>We are pleased about your visit on a website of Volkswagen AG, Berliner Ring 2, 38440 Wolfsburg, , registered in the Register of Companies of the Brunswick District Court under No. HRB 100484 (‘Volkswagen AG’). In the following we inform you about the processing of your personal data by Volkswagen AG in connection with your visit to the website. B. Processing of your personal data When you visit our website, we process the following log files from you, which do not allow any inference to your person: The legal basis for processing this personal data is our legitimate interest being able to provide the website properly (Article 6 paragraph 1 letter f GDPR). This personal data is only You can access livestreams and video-on-demand services via the on a voluntary basis. This moving image content is for your information. When you call up the livestream or the video-on-demand, your IP address is processed for the purpose of providing the video retrieval. The legal basis for the data processing is the fulfillment of the contract Art. 6 para. 1 lit. b DSGVO. The processing of personal data takes place exclusively in the form of your IP address, which is required for downloading and livestreaming video content. Volkswagen AG uses your IP address to evaluate access to video content anonymously. For this purpose, the full IP address is forwarded to a web analysis server, where it is made anonymous immediately after the transfer. The web analysis server then processes the anonymous IP address, in order to statistically the accesses. The anonymous IP address cannot be linked to a person. The of your IP address for the statistical analysis of accesses to video content, and for the purpose of the range of videos, represents a further processing of your IP address, which is compatible with the original purpose for which the information was collected. The of your IP address for the purpose of statistically the accesses takes place on the legal basis of our legitimate interest (Art.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/privacy-policy-15677</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/privacy-policy-15677#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-16</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4330,17 +4350,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/privacy-policy-15677</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/privacy-policy-15677#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-66</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4353,40 +4373,40 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/annual-general-meeting-2025-18801</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-12</t>
+        </is>
+      </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>The 65th Annual General Meeting of Volkswagen Aktiengesellschaft is expected to take place on Friday, May 16, 2025 as a virtual Annual General Meeting without physical presence of shareholders. We can be reached Mondays through Fridays (except bank holidays) during normal business hours:</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/annual-general-meeting-2025-18801</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/annual-general-meeting-2025-18801#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-15</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4399,17 +4419,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/annual-general-meeting-2025-18801</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/annual-general-meeting-2025-18801#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-36</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4422,40 +4442,40 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-volkswagen-group-and-rivian-partnership-18390</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-72</t>
+        </is>
+      </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Information Relating to the Volkswagen Group &amp; Rivian partnership</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-volkswagen-group-and-rivian-partnership-18390</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-volkswagen-group-and-rivian-partnership-18390#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-30</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4468,17 +4488,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-volkswagen-group-and-rivian-partnership-18390</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/information-relating-to-the-volkswagen-group-and-rivian-partnership-18390#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-17</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4491,40 +4511,40 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-engagement-16118</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-18</t>
+        </is>
+      </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group and its brands operate in a complex and heavily regulated environment. We see it as our responsibility to actively shape the framework for our business activities in dialogue with our stakeholders. Representation of interests in Politics and Society At Group level, the company's political representation of interests toward governments, parliaments, authorities, associations, institutions and society is coordinated worldwide in order to ensure concerted action and uniform communication between the brands and companies. Responsibility lies with the Public Affairs steering committee, which reports regularly to the Group Executive Board. Principles such as integrity, openness and traceability as well as guidelines for contact with politicians are set out in a Group-wide guideline, as are rules on transparency. This is the basis for, e.g., the entries made by Volkswagen AG in the lobby transparency registers of the Federal Republic of Germany and the European Union, as well as the disclosure of our positions vis-à-vis politicians in the reporting year, for example on decarbonization, digitalization or human rights. The guideline obliges the company's political decision-makers in associations to continue to bring the Volkswagen Group's positions into discussions within the scope of what is permissible under competition and antitrust law. As a matter of principle, the Volkswagen AG does not support political parties and politicians through donations or sponsorships.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-engagement-16118</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-engagement-16118#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/industry/technology/technology-media-telecom-outlooks/semiconductor-industry-outlook.html#endnote-sup-24</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4537,63 +4557,63 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-engagement-16118</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-engagement-16118#content</t>
-        </is>
-      </c>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Limited functionality available Explore Deloitte's Unlimited Reality™ services Cultivating a sustainable and prosperous future Real-world client stories of purpose and impact Commercial, products, and operations transformation for the future of your industry. Go straight to smart with daily updates on your mobile device See what's happening this week and the impact on your business At Deloitte, we lead with purpose and DEI to help enact positive change for our people and communities. By deepening our commitments to social impact, sustainability, equity, and trust, we’re helping to create a more prosperous and equitable society. Your success is our focus. From internships to on-the-job training, there’s plenty of room for your career to grow for years to come. Apply today and join us. We can impact the world—together. Inspiring connections. Impactful work. All here. All waiting to be discovered by you. When you join our Talent Network, you're connecting to career resources that provide insights into working at Deloitte and potential job opportunities. Let's get started. Deloitte US and our global networkhas been saved Deloitte US and our global networkhas been removed An Article TitledDeloitte US and our global networkalready exists in Saved items Deloitte US and our global network Here at Deloitte, we are continuously evolving how we work and how we look at marketplace challenges so we can continue to deliver measurable, sustainable results for our clients and our communities. We believe that we're only as good as the good we do. All the facts and figures that talk to our size and diversity and years of history, as notable and important as they may be, are secondary to the truestmeasure of Deloitte, our purpose – to make an impact that matters by creating trust and confidence in a more equitable society.So, when people ask, “What’s different about Deloitte?” the answer resides in the many specific examples of where we have helped Deloitte member firm clients, our pe</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cultural-engagement-17291</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#10</t>
+        </is>
+      </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>With its support for culture and the arts, the Volkswagen Group takes responsibility for tomorrow.  Because future is being shaped when creativity unfolds. As a global and socially responsible company, we translate this belief into action around the world. In the frame of long-term partnerships and sustainable collaborations, we partner with artists, cultural visionaries and internationally leading institutions to help that an even larger audience gets inspired and encouraged by creative works and ideas. Culture for everyone: Volkswagen Group Art4All We have initiated “Volkswagen Group Art4All” to open the world of culture and the arts for a broad audience. The result is an exhilarating program developed by our partners in Berlin and Wolfsburg: Every Thursday between 4 p.m. and 8 p.m., the in Berlin opens for free. Every Sunday, the Hamburger Bahnhof – Nationalgalerie der Gegenwart in Berlin can be visited at a discounted rate which includes changing activities for the entire family. From 4 p.m. onwards on every last Wednesday of a month, guests of the benefit from free access along with guided tours, workshops or film screenings. Chemnitz: European Capital of Culture 2025 EPHRA: Children explore art at home Berlin-based and a specialist for cultural work, EPHRA connects children with art. While the organization enables children to experience the world through art, it also empowers artists to engage with perspectives of the young generation. Their current work includes four events for pupils form primary schools in Berlin and contemporary artists. After talking about the life and work of the artists, young and old get creative together. Last year, EPHRA realized the exhibition “Thoughts play Hide and Seek” which featured works from 22 artists including Olafur Eliasson, Karin Sander and Tomás Saraceno. “Flashes of Memory. Photography during the Holocaust” For the first time, the widely recognized “Flashes of Memory” exhibition, which had been developed by Yad Vashem,</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cultural-engagement-17291</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cultural-engagement-17291#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#9</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4606,17 +4626,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cultural-engagement-17291</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cultural-engagement-17291#content</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#12</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4629,40 +4649,40 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/copyright-notices-and-licenses-for-open-source-software-15698</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#11</t>
+        </is>
+      </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Copyright notices and licenses for Open Source Software Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the "Software"), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions: The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software. THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE. Copyright © 2013–2021 Contributors Author: Andrew Rowls Community ( https://github.com/eternicode/bootstrap-datepicker... Copyright 2013–2015 Brian Reavis Copyright 2010-2021 James Coglan Copyright 2014-2020 James Coglan http://www.apache.org/licenses/ TERMS AND CONDITIONS FOR USE, REPRODUCTION, AND DISTRIBUTION "License" shall mean the terms and conditions for use, reproduction, and distribution as defined by Sections 1 through 9 of this document. "Licensor" shall mean the copyright owner or entity authorized by the copyright owner that is granting the License. "Legal Entity" shall mean the union of the acting entity and all other entities that control, are controlled by, or are under common control with that entity. For the purposes of this definition, "control" means (i) the power, direct or indirect, to cause the direction or management of such entity, whether by contract or otherwise, or (ii) ownership of</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/copyright-notices-and-licenses-for-open-source-software-15698</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/copyright-notices-and-licenses-for-open-source-software-15698#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#dgl</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4675,17 +4695,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/copyright-notices-and-licenses-for-open-source-software-15698</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/copyright-notices-and-licenses-for-open-source-software-15698#content</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#facts</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4698,40 +4718,40 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ethics-risk-management-and-compliance-15952</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#top</t>
+        </is>
+      </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Ethics, Risk Management &amp; Compliance Prerequisite for sustainable success It is crucial for trust in our company, our products, services and innovations that we conduct ourselves with honesty and integrity at all times. In all areas of work and functions, we therefore always make decisions in accordance with our corporate values, applicable national and international laws, regulations and internal voluntary commitments. We understand integrity and compliance not as an end in themselves, but as a prerequisite for sustainable success. They form the core of correct and value-based behavior in the Volkswagen Group. That is why they are an integral part of our strategy. In recent years we have implemented "Together4Integrity", one of the biggest change and culture programs in our Group's history. Our integrity and compliance activities have reached more than 813 companies. our path. For us it is clear: We want to set an example, live up to our responsibility – and live up to the trust placed in us by our employees, customers, and compliance management and how the Volkswagen Group is committed to protecting human rights. Volkswagen Group's Annual Report and Sustainability Report. We can only achieve sustainable success as a company if we act with integrity and in compliance with the rules. We want to know about and prevent possible misconduct. Every information helps. Human rights are close to our hearts. We want to be pioneers in this area. Corruption has no place in the Volkswagen Group. We advocate a clear zero tolerance policy for active and passive corruption. Risk Management System and Internal Control System Every business activity involves risks. The important thing is to deal with them responsibly. Group Sustainability Report 2023</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ethics-risk-management-and-compliance-15952</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ethics-risk-management-and-compliance-15952#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/pages/about-deloitte/articles/about-deloitte.html#video</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4744,35 +4764,35 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/ethics-risk-management-and-compliance-15952</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>https://www.volkswagen-group.com/en/ethics-risk-management-and-compliance-15952#content</t>
-        </is>
-      </c>
+          <t>https://www2.deloitte.com/us/en/insights.html</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Deloitte Insights and our research centers deliver proprietary research designed to help organizations turn their aspirations into action. For personalized content and settings, go to yourMy Deloitte Dashboard Creating opportunity at the intersection of climate disruption and regulatory change Better questions about generative AI Deloitte Insights Magazine, issue 33 Stay informed on the issues impacting your business with Deloitte's live webcast series. Gain valuable insights and practical knowledge from our specialists while earning CPE credits. Join host Tanya Ott as she interviews influential voices discussing the business trends and challenges that matter most to your business today. Looking to stay on top of the latest news and trends? With MyDeloitte you'll never miss out on the information you need to lead. Simply link your email or social profile and select the newsletters and alerts that matter most to you. Helping future-focused leaders navigate what’s next Generative AI meets the virtual world: A model for human-AI collaboration Imagine a future in which virtual meetings with specialized AI agents felt similar to meetings with human coworkers. Could this enhance decision-making and boost performance? Fed signals smaller rate cuts in 2025 amid high inflation and trade risks Given the FOMC's median view in December, the Fed rate will remain high for longer More roles, more responsibilities: Navigating the new frontiers of the modern C-suite New roles in the C-suite are accounting for increasing complexities and skill expansion. How leaders can best prepare for this evolution? European CFO Survey autumn 2024: Sentiment stabilises, but optimism fades with rising risks European CFO optimism dips amidst economic uncertainty. While revenue projections remain positive, concerns about inflation, global trade and interest rates persist. Global economic outlook, January 2025 The year in preview: Chief financial officer confidence soars heading into 2025 United State</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/focus-topics-16036</t>
+          <t>https://www2.deloitte.com/us/en/pages/financial-services/articles/supercharged-banking-client-services-relationship-management.html</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -4783,65 +4803,66 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve">As we transition from automotive manufacturer to mobility group, we are positioning ourselves for the future. Our strategy defines a total of six focus topics and five additional ESG topics for the area of sustainability and ESG. Volkswagen wants to become a net carbon-neutral company by 2050. We have set an intermediate goal for ourselves along the way: By 2030, we want to reduce the carbon footprint of our passenger cars and light commercial vehicles by 30% per vehicle (compared with 2018). We want to achieve this goal purely through reduction measures and switching to renewable energies – i.e., without any offset measures. In addition to the Group’s electric offensive, we are concentrating to a greater extent on integrating renewably generated electricity in the use phase and switching the entire power supply for our plants to renewable energy. The increasing closed-loop circulation of materials helps to reduce the negative environmental impact of resource con sumption and counteract the shortage of raw materials. This makes it a key sustainability topic for the Volkswagen Group. At the same time, this development offers us many opportu innovation in the areas of material design, recycling technologies and business models. Another important driver of the circular economy is the ongoing decarbonization of the Volkswagen Group: The growing use of secondary materials and the es tablishment of closed loops of materials can help to signifi igitalization and electrification as drivers of future technological develop ment also increase knowledge intensity in the sector, with a focus on coding, and engineering activities. This transition will be completed within a decade. This means the whole automotive world is currently in a transformation corridor, at the end of which the role of automotive manu facturers and their suppliers as employers and the qualifica tions needed in the industry will be radically different from at the start of this process. With our Group People </t>
+          <t>Limited functionality available Explore Deloitte's Unlimited Reality™ services Cultivating a sustainable and prosperous future Real-world client stories of purpose and impact Commercial, products, and operations transformation for the future of your industry. Go straight to smart with daily updates on your mobile device See what's happening this week and the impact on your business At Deloitte, we lead with purpose and DEI to help enact positive change for our people and communities. By deepening our commitments to social impact, sustainability, equity, and trust, we’re helping to create a more prosperous and equitable society. Your success is our focus. From internships to on-the-job training, there’s plenty of room for your career to grow for years to come. Apply today and join us. We can impact the world—together. Inspiring connections. Impactful work. All here. All waiting to be discovered by you. When you join our Talent Network, you're connecting to career resources that provide insights into working at Deloitte and potential job opportunities. Let's get started. Supercharged banking relationship managerhas been saved Supercharged banking relationship managerhas been removed An Article TitledSupercharged banking relationship manageralready exists in Saved items Supercharged banking relationship manager See how emerging technologies can boost personalized client service In commercial banking, relationship managers (RM) play a vital role in maintaining and growing client relationships, especially in a complex and global business environment. Emerging technologies can help enhance their productivity, deepen client relationships, and improve overall banking client services. Explore how a modular approach to implementation—including APIs, generative AI, and alliances—helps banks unlock a competitive edge. The role of the relationship manager in commercial banking Commercial banking clients look to their banks for financing, commercial lending, global trade, and cas</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/focus-topics-16036</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>https://www.volkswagen-group.com/en/focus-topics-16036#cookie-manager</t>
-        </is>
-      </c>
+          <t>https://www2.deloitte.com/us/en/legal/terms-of-use.html</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Limited functionality available Explore Deloitte's Unlimited Reality™ services Cultivating a sustainable and prosperous future Real-world client stories of purpose and impact Commercial, products, and operations transformation for the future of your industry. Go straight to smart with daily updates on your mobile device See what's happening this week and the impact on your business At Deloitte, we lead with purpose and DEI to help enact positive change for our people and communities. By deepening our commitments to social impact, sustainability, equity, and trust, we’re helping to create a more prosperous and equitable society. Your success is our focus. From internships to on-the-job training, there’s plenty of room for your career to grow for years to come. Apply today and join us. We can impact the world—together. Inspiring connections. Impactful work. All here. All waiting to be discovered by you. When you join our Talent Network, you're connecting to career resources that provide insights into working at Deloitte and potential job opportunities. Let's get started. Deloitte.com is comprised of various individual global, country, regional, or practice specific websites. Any such individual website is designated after the word "Location:" in theupper right-hand cornerof the webpage that you are viewing at any point during your use of Deloitte.com.These Terms of Use apply to the specific global, country, regional, or practice specific website that you were viewing within Deloitte.com before clicking on these Terms of Use. Such individual website is referred to in these Terms of Use as "this Website."By using this Website, you are agreeing to these Terms of Use. If you do not agree to these Terms of Use, then you are not allowed to use this Website and should immediately terminate such usage.The "Deloitte Network"refers to Deloitte Touche Tohmatsu Limited (DTTL), the member firms of DTTL, and their related entities. Each individual global, country, regional, or prac</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/focus-topics-16036</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>https://www.volkswagen-group.com/en/focus-topics-16036#content</t>
-        </is>
-      </c>
+          <t>https://www2.deloitte.com/us/en/pages/center-for-board-effectiveness/articles/cbe-nacd-crisis-management.html</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Limited functionality available Explore Deloitte's Unlimited Reality™ services Cultivating a sustainable and prosperous future Real-world client stories of purpose and impact Commercial, products, and operations transformation for the future of your industry. Go straight to smart with daily updates on your mobile device See what's happening this week and the impact on your business At Deloitte, we lead with purpose and DEI to help enact positive change for our people and communities. By deepening our commitments to social impact, sustainability, equity, and trust, we’re helping to create a more prosperous and equitable society. Your success is our focus. From internships to on-the-job training, there’s plenty of room for your career to grow for years to come. Apply today and join us. We can impact the world—together. Inspiring connections. Impactful work. All here. All waiting to be discovered by you. When you join our Talent Network, you're connecting to career resources that provide insights into working at Deloitte and potential job opportunities. Let's get started. Thinking about the unthinkable: + Crisis scenario planning and the board As published in NACD’s ‘Directorship' magazine Authors:${authors}What is scenario planning?As boards contemplate the year ahead, they face a challenging risk environment. From technology to politics to climate change, there’s a seemingly constant emergence of new crises that are increasing in scope and complexity. For boards of directors, crisis scenario planning brings a sense of calm to the storm, anticipating and preparing them for potential crises that could impact operations, reputation, or financial condition, among other things. When done right, scenario planning can help the board more effectively guide and support the organization in navigating crises, ensuring agile decision-making and long-term resilience.Scenario planning is identifying a crisis—or a fact pattern that could lead to a crisis—and developing scenarios as </t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/investors-15766</t>
+          <t>https://www2.deloitte.com/us/en/pages/consulting/articles/idc-marketscape-worldwide-industry-cloud-professional-services.html</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -4852,47 +4873,47 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Volkswagen Group Interim Report On October 30, 2024 the Volkswagen Group published the results for the third quarter 2024. Information Relating to the Volkswagen Group &amp; Rivian partnership The Volkswagen Group, headquartered in Wolfsburg, is one of the world's leading manufacturers of automobiles and commercial vehicles and the  largest carmaker in Europe... With the Group strategy NEW AUTO – Mobility for generations to come, we are preparing ourselves for the global changes in mobility... the most significant transformation phase in its history: the pursuit of sustainable mobility for Interim Report January - September 2024 Volkswagen Group Presentation - H1 2024 Investor, Analyst and Media Call Presentation by Oliver Blume and Arno Antlitz Oliver Blume, CEO Volkswagen Group, speaks at the Annual General Meeting 2024 Hans Dieter Pötsch, Chairman of the Supervisory Board Volkswagen Group, speaks at the Annual General Meeting 2024 Oliver Blume, CEO Volkswagen Group, speaks at the Annual General Meeting 2024 Hans Dieter Pötsch, Chairman of the Supervisory Board Volkswagen Group, speaks at the Annual General Meeting 2024 Arno Antlitz, CFO and COO Volkswagen Group and Oliver Blume, CEO Volkswagen Group</t>
+          <t>Limited functionality available Explore Deloitte's Unlimited Reality™ services Cultivating a sustainable and prosperous future Real-world client stories of purpose and impact Commercial, products, and operations transformation for the future of your industry. Go straight to smart with daily updates on your mobile device See what's happening this week and the impact on your business At Deloitte, we lead with purpose and DEI to help enact positive change for our people and communities. By deepening our commitments to social impact, sustainability, equity, and trust, we’re helping to create a more prosperous and equitable society. Your success is our focus. From internships to on-the-job training, there’s plenty of room for your career to grow for years to come. Apply today and join us. We can impact the world—together. Inspiring connections. Impactful work. All here. All waiting to be discovered by you. When you join our Talent Network, you're connecting to career resources that provide insights into working at Deloitte and potential job opportunities. Let's get started. IDC MarketScape: Worldwide Industry Cloud Professional Services 2024 Vendor Assessmenthas been saved IDC MarketScape: Worldwide Industry Cloud Professional Services 2024 Vendor Assessmenthas been removed An Article TitledIDC MarketScape: Worldwide Industry Cloud Professional Services 2024 Vendor Assessmentalready exists in Saved items IDC MarketScape: Worldwide Industry Cloud Professional Services 2024 Vendor Assessment Deloitte has been recognized as a Leader in IDC MarketScape: Worldwide Industry Cloud Professional Services 2024 Vendor Assessment. This IDC MarketScape study provides an assessment of the market for industry cloud professional services and how some of the major professional services firms are engaged in the space. Using the IDC MarketScape model, IDC identified which criteria are important for organizations selecting a service provider for an industry cloud–related project and how the</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/investors-15766</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>https://www.volkswagen-group.com/en/investors-15766#cookie-manager</t>
-        </is>
-      </c>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Deloitte Insights and the our research centers deliver proprietary research designed to help organizations turn their aspirations into action. For personalized content and settings, go to yourMy Deloitte Dashboard Creating opportunity at the intersection of climate disruption and regulatory change Better questions about generative AI Deloitte Insights Magazine, issue 33 Stay informed on the issues impacting your business with Deloitte's live webcast series. Gain valuable insights and practical knowledge from our specialists while earning CPE credits. Join host Tanya Ott as she interviews influential voices discussing the business trends and challenges that matter most to your business today. Looking to stay on top of the latest news and trends? With MyDeloitte you'll never miss out on the information you need to lead. Simply link your email or social profile and select the newsletters and alerts that matter most to you. Global economic outlook, January 2025 Economic uncertainty seems to be the biggest factor determining the path that countries take in 2025. But numbers remain mostly in growth territory, barring a few exceptions. Chief Global Economist, Deloitte Touche Tohmatsu Dr. Kalish is the Chief Global Economist of Deloitte Touche Tohmatsu Ltd. He is a specialist in global economic issues as well as the effects of economic, demographic, and social trends on the global business environment. He advises Deloitte clients as well as Deloitte’s leadership on economic issues and their impact on business strategy. In addition, he has given numerous presentations to corporations and trade organizations on topics related to the global economy. He is widely traveled and has given presentations in 47 countries on six continents. He has been quoted by theWall Street Journal,The Economist, andThe Financial Times. Dr. Kalish holds a bachelor’s degree in economics from Vassar College and a PhD in international economics from Johns Hopkins University. Dr. Kalish is the Chief Gl</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/investors-15766</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/investors-15766#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-18</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4905,40 +4926,40 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/career-16057</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-22</t>
+        </is>
+      </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>We are the Volkswagen Group: A unique and colorful team with people from a wide range of cultures that’s at home anywhere in the world – from Australia to Canada, from Norway to South Africa. Our goal is to shape the mobility of tomorrow – emission- and CO -free, with autonomous driving and with innovation. We welcome all talents to work with us on this future – regardless of origin, age, disability, religion or sexual identity. It doesn’t matter whether you have a school-leaving certificate, a university degree or already have professional experience: Our corporate family offers many exciting entry and development opportunities. Click here for the jobs and vocational training opportunities of our strong brand groups and business units: from Core to Progressive and Sport Luxury, from Trucks to financial and mobility services. Collage Faces of Volkswagen Group Volkswagen Group means: around 684,000 people people worldwide work together on shaping the future of mobility. Our talents create attractive vehicles for various brands, code software, demonstrate their financial expertise or work in the exciting field of batteries and charging. We asked them: What moves them? And what do they move? The seven Volkswagen Group Essentials are the foundation of the Group's values and the basis of our common corporate culture. Other Brands and Business Units on LinkedIn</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/career-16057</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/career-16057#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-59</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4951,17 +4972,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/career-16057</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/career-16057#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-17</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -4974,40 +4995,40 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/audi-15850</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-80</t>
+        </is>
+      </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Audi stands for sporty vehicles, premium workmanship, and progressive design – for “Vorsprung durch Technik”. Founded in 1899 by August Horch, the Audi Group – which also unites the Bentley, Lamborghini and Ducati brands under one roof – is currently one of the most successful manufacturers of automobiles and motorcycles in the premium segment. In 2022, the Audi Group delivered around 1.61 million cars from the Audi brand, 9,233 sports cars from the Lamborghini brand, 15,174 luxury vehicles from the Bentley brand and 61,562 motorcycles from the Ducati brand to customers. In the 2022 fiscal year, AUDI AG achieved total revenue of 61.8 billion euros and an operating profit before special items of 7.6 billion euros. More than 87,000 people all over the world work for the Audi Group, over 54,000 of them at AUDI AG in Germany. With its attractive brands and models, innovative mobility offerings and groundbreaking services, the group is systematically pursuing its path toward becoming a leading provider of connected, fully electric premium mobility. Innovations like quattro permanent all-wheel drive are a part of Audi’s DNA. During the next five years, Audi is expanding its portfolio of fully electric vehicles: By 2027, the brand with the four rings plans to have an offering for every core segment in its portfolio of fully electric models. This clear commitment to electromobility is the cornerstone of Audi’s sustainability strategy. Based on this, Audi considers sustainability along the entire value chain, takes responsibility for the environment and society and makes sustainable corporate governance an inherent component of all its decisions and products. Annual reporting of the Volkswagen Group companies 2023</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/audi-15850</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/audi-15850#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-63</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5020,17 +5041,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/audi-15850</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/audi-15850#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-64</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5043,40 +5064,40 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/bentley-15809</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-39</t>
+        </is>
+      </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>From W.O. Bentley, who founded Bentley Motors in 1919, to the current team of around 4,000 dedicated employees: Bentley’s extraordinary cars have always been designed by outstanding people and built using only the highest quality materials. From humble beginnings, Bentley has been constantly evolving – in a relentless pursuit of luxury and performance. The beliefs, actions and ambitions continue to be shaped by the vision of company founder Bentley. Today, Bentley is the most sought-after luxury car brand in the world. A Bentley provides both relaxation and excitement and represents a very personal journey. For its passengers, this means immersing themselves in a world of luxurious excellence. In this way, the brand represents its capabilities, its passion and the pride of its staff. Bentley is creating a future driven by new technologies, materials, fuels and capabilities in the pursuit of an advanced, modern world. A world where sustainable methods are used to achieve the highest levels of luxury mobility. Bentley’s Beyond100+ strategy describes how this future is to become reality and how the brand intends on becoming the leading manufacturer of luxury electric cars. Bentley, already leading the way in the luxury hybrid car sector, will consequently further cement this position by extending the lifecycle of PHEV models beyond 2030, to 2035.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/bentley-15809</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/bentley-15809#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-70</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5089,17 +5110,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/bentley-15809</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/bentley-15809#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-89</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5112,40 +5133,40 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-sites-17481</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-14</t>
+        </is>
+      </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group is headquartered in Wolfsburg, Germany. As a global company, we have 114 production facilities across 17 European countries and 10 countries in North and South America, Asia, and Africa. Our worldwide presence allows us to cater to the needs of diverse markets and drive forward innovative and sustainable technologies for future mobility The production sites of the Volkswagen Group are strategically located around the world to ensure efficient manufacturing and delivery of vehicles. Our international innovation centers serve as catalysts for groundbreaking research and emerging technologies, collaborating closely with the group's brands to translate new ideas into reality – shaping our vehicles of the future. Within our global network of development sites, we bring high-performance software and automated systems with artificial intelligence to production readiness for practical application within the company. Furthermore, we are establishing battery cell factories to meet the increasing demand for electric vehicles. Volkswagen Group’s battery company PowerCo, has already identified three locations for battery cell production: Salzgitter (Germany), Valencia (Spain), and St. Thomas (Canada). Our presence in Europe underscores our close ties to the region. The company operates ten core brands from five European countries, organized into brand groups: with Volkswagen (Wolfsburg, Germany), Volkswagen Commercial Vehicles (Hannover, Germany), SKODA (Mladá Boleslav, Czech Republic), SEAT, and CUPRA (Barcelona, Spain) with Audi (Ingolstadt, Germany), Lamborghini (Sant'Agata Bolognese, Italy), Bentley (Crewe, United Kingdom), Ducati (Bologna, Italy) with Porsche (Stuttgart-Zuffenhausen, Germany) Europe plays a central role in our global strategy for research and development in the automotive industry. Here, we have established numerous innovation centers and production facilities, contributing significantly to the development of new technologies and vehicl</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-sites-17481</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-sites-17481#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-10</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5158,17 +5179,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-sites-17481</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-group-sites-17481#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-19</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5181,40 +5202,40 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-15772</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-40</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>the most significant transformation phase in its history: the pursuit of sustainable mobility for is to generate meaningful value for both society and the environment, today and for to effectuate a change that truly matters. for a measurable positive impact. based on four dimensions: nature, our people, society, and business The four dimensions of regenerate+ generations with a future worth living in, we avoidance and reduction of emissions. The Volkswagen Group is committed to Here you can find more information about the dimension nature. The strength of the Volkswagen Group is linked to the collective efforts of who work for us across the globe. This a comprehensive, sustainable transformation through joint effort It is, however, a path that will Here you can find more information about the dimension our people. great responsibility toward society, the environment, our people, and our partners. to generate a positive impact within the value chain and beyond. Here you can find more information about the dimension society. of regenerate+ is accelerating the business models of the Volkswagen Group. New business areas, new products, and financing models provide the impetus for this. Here you can find more information about the dimension business. Group Sustainability Report 2023 Responsible Raw Materials Report 2023 Association Climate Review 2023</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-15772</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-15772#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-73</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5227,17 +5248,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-15772</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-15772#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-41</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5250,40 +5271,40 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cupra-15848</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#asia</t>
+        </is>
+      </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>As an unconventional challenger brand, CUPRA combines emotional design, electrification and performance to inspire the world from Barcelona. Disruptive and rebellious – since its launch in 2018, CUPRA has become one of the fastest growing car brands in Europe. The brand intends to be fully electrified by 2030. CUPRA has a simple goal: to build high-emotion cars with an extraordinary design and impressive performance. Sporty and provocative, passionate and sexy: The brand proves that electric cars don't have to be boring and basic. Each new model also marks a fresh milestone in defining the CUPRA identity: The brand's original stars include the CUPRA Ateca, a unique model in its segment; the CUPRA Leon, the first electrified model thanks to a plug-in hybrid electric motor; the CUPRA Formentor, the first model developed exclusively by the brand, and the CUPRA Born, the brand's first 100% electric vehicle. But that is just the beginning of an exciting journey. In the next years, CUPRA will transform the world of electric driving with a new era of icons – CUPRA Tavascan, CUPRA Terramar and CUPRA Raval. CUPRA challenges the status quo and creates emotional moments on and off the road. Together with its dedicated following, the CUPRA Tribe, the brand exemplifies contemporary values and the inspiration of a new generation. The brand intends to become one of Spain's leading brands worldwide. CUPRA operates over 700 CUPRA garages worldwide, including nine CUPRA City garages in Mexico City, Munich, Milan, Lisbon, Rotterdam, Sydney, Berlin, Paris and Madrid. Additional garages will follow in Manchester, Istanbul and Vienna. Australia was the first major step in the globalization strategy, and CUPRA will enter the US market by the end of the decade. includes both SEAT and CUPRA employees</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cupra-15848</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cupra-15848#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-72</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5296,17 +5317,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cupra-15848</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cupra-15848#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-93</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5319,40 +5340,40 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/business-18276</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-65</t>
+        </is>
+      </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group is advancing its business model through the holistic approach of regenerate+, driving innovation in new business areas, products, services and financing. In line with the principles of sustainability, we engage investors in our commitment to long-term value creation and environmental responsibility. The Volkswagen Group uses and promotes sustainability-oriented business Sustainability and climate-friendly business practices are central to the Volkswagen Group's strategy and reflect our commitment to environmental responsibility. Every investment decision is carefully aligned with these goals, underscoring their paramount importance. become even more relevant. The escalating impact of climate change, growing consumer awareness of sustainable living, and voluntary frameworks such as the Paris Climate Agreement are key drivers. Electric mobility plays a key role in reducing emissions from road traffic. In 2023, the share of BEVs in the Volkswagen Group the previous year. By 2030, the global share is expected to reach 50 roduction ramp-up is a process that we are continuously reviewing and adapting. Further fully electrified models, such as the and the Porsche Macan electric, will follow in 2024. technology - from carbon capture and storage to advanced heat pumps and large engines fueled by next-generation sources - that play a key role in the decarbonization of critical industries. Since 2023, the Volkswagen Group has also been actively investing in decarbonization efforts both internally and externally through a dedicated venture capital fund. Established with anchor investment of $300 million, this fund aims to accelerate the development of innovative decarbonization technologies and solutions across the mobility value chain. Stay tuned for updates scheduled for release this summer. The Volkswagen Group is strengthening and intensifying its sustainable in the global automotive sector, our goal is to actively sustainable finance practices. By 2030</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/business-18276</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/business-18276#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-31</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5365,17 +5386,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/business-18276</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/business-18276#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-62</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5388,40 +5409,40 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/about-us-16013</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-47</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group, headquartered in Wolfsburg, is one of the world's leading manufacturers of automobiles and commercial vehicles and the largest carmaker in Europe. With our brands, business units and financial services, we are shaping the zero-emission and autonomous future of mobility. From the company profile and corporate principles to the history - here you will find the most important information about the Volkswagen Group. With our Group strategy, we are preparing for the global changes in mobility and are thus significantly driving forward the transformation of the Volkswagen Group into a software-oriented company. The focus is on the four central cross-cutting topics of our technology platforms: Mechatronics, Software, Battery &amp; Charging and Mobility Solutions. The Volkswagen Group has its headquarters in Wolfsburg, Germany. It operates globally and has 114 production facilities in 17 European countries and ten countries in North and South America, Asia and Africa. Its global presence enables it to respond to the needs of different markets and drive forward innovative and sustainable technologies for the mobility of the future. DRIVE Berlin visualizes the company's current mobility topics and goals in changing exhibitions and events. The Volkswagen Group has ten strong core brands that meet every mobility need. They are divided into the Core, Progressive and Sport Luxury brand groups and work independently to achieve joint success. Each brand serves different mobility needs and benefits from synergy effects within the Group. Corporate governance is of central importance to the Volkswagen Group. Responsible, trusting and cooperative action characterizes the work of the Board of Management, Supervisory Board and committees of the Supervisory Board. Transparency and stakeholder interests are at the heart of our corporate governance. The seven Group principles, Volkswagen Group Essentials, form the foundation of our values and are an expression of our respo</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/about-us-16013</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/about-us-16013#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-73</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5434,17 +5455,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/about-us-16013</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/about-us-16013#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-69</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5457,40 +5478,40 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-essentials-15957</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-86</t>
+        </is>
+      </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>The Foundation of the Volkswagen Group's Values The seven Volkswagen Group Essentials are the foundation of the Group's values and the basis of our common corporate culture: We take on social responsibility. We pay attention to the environmental compatibility of our products and processes, and improve them, every day. We do the right thing out of inner conviction, even if no one is watching. We are not afraid of hierarchies and say openly what we think. We listen to one another and find the best solution together. We shape the mobility of tomorrow. We are multicolored. Different. Unique. Part of the greater whole. We are open to other ways of thinking, to new experiences and solutions. We approach one another with respect, as equals. We stand for sustainable products and quality. We make an important contribution to the company’s success, with passion, with conviction, effectively. We are proud of what we do and how we do it. We work together, without hesitation or complications, worldwide. We are bridge builders not gatekeepers. We stand united, we are a team. We can be counted on. We do what we say and say what we do, candidly, honestly. We keep our promises. We regain lost trust. The Volkswagen Group Essentials The Group Essentials of the Volkswagen Group The seven Group Essentials are the common foundation of values of the Volkswagen Group that unites all brands and companies and over 600,000 employees in the Group.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-essentials-15957</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-essentials-15957#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-24</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5503,17 +5524,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-essentials-15957</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-essentials-15957#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-95</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5526,40 +5547,40 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-council-16017</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-29</t>
+        </is>
+      </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Initiators, supporters, critical voices and challengers – the roles and tasks of the Group Sustainability Council are as diverse as its topics. The new name Sustainability Practice Groups reflects the new, practical format. Volkswagen Group’s Sustainability Council The independent advisory body, which was established in 2016, supported the Volkswagen Group in important strategic sustainability issues. The committee was made up of experts from science, politics and civil society. In doing so, it acted as a source of inspiration, supporter, critical voice and "challenger" – always with the aim of bringing different stakeholder perspectives into the company. The revised format is based on the holistic sustainability strategy regenerate+ in its realignment and will provide agile and practical impulses. The name Sustainability Practice Groups expresses this. Twelve independent experts from science, industry and society contribute their impulses to four Sustainability Practice Groups, each of which focuses on one of the strategic sustainability dimensions: Nature, Our Workforce, Society and Business. In each of the Practice Groups, three external advisory boards work together with three experts from the Volkswagen Group on an equal footing. As a mobility provider of the future, making a positive contribution to nature and society is the vision and driving force of the regenerate+ sustainability strategy. The new format of the Sustainability Practice Groups enables a practical and constructive-critical discourse with the aim of advancing the implementation and further development of regenerate+.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-council-16017</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-council-16017#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-5</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5572,17 +5593,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-council-16017</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-council-16017#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-82</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5595,40 +5616,40 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/deliveries-to-customers-15741</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-31</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>From April 2024, deliveries to customers will be published on a quarterly basis. The next publication is scheduled for April 2025.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/deliveries-to-customers-15741</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/deliveries-to-customers-15741#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-56</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -5641,17 +5662,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/deliveries-to-customers-15741</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/deliveries-to-customers-15741#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-27</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5664,40 +5685,40 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-7</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Currently the Board of Management of Volkswagen AG comprises nine members. Each Board Member is responsible for one or more functions within the Volkswagen Group. Dr. Oliver Blume is the Chairman. The work of the Board of Management of Volkswagen AG is supported by the boards of the brands and regions as well as by the other group business units and holdings. Chairman of the Board of Management of Volkswagen AG Dr. Oliver Blume, Chairman of the Board of Management of Volkswagen AG and Dr. Ing. h.c. F. Porsche AG The Supervisory Board of Volkswagen AG appointed Oliver Blume as a Chairman of the Board of Management of Volkswagen AG effective September 1, 2022, combining with his role as the Chairman of the Board of Management of Dr. Ing. h.c. F. Porsche AG. Blume was born June 6, 1968 in Brunswick. He holds a PhD in mechanical engineering and has been with the Volkswagen Group since 1994. After graduating from high school, Blume began his studies at TU Braunschweig in 1988, and was awarded a degree in mechanical engineering in 1994. He completed his PhD thesis to receive the title of Doctor of Engineering in Vehicle Engineering from the Institute of Vehicle Technology at Tongji University, Shanghai, in 2001. Blume already started his professional career in 1994, joining the international trainee program at AUDI AG. After roles in body construction planning and logistics, he held various senior management functions until 2006, including Head of Body Construction for the A3, Head of the AUDI AG Pilot Plant, and Head of Planning and the Pilot Series Centre at SEAT S.A. in Barcelona. Blume moved to Wolfsburg as Head of Production Planning at the Volkswagen brand in 2009. He became the member of the Executive Board for Production and Logistics at Porsche AG in 2013. He was appointed Chairman of the Executive Board of Dr. Ing. h. c. F. Porsche AG in 2015 and since 2018, he was a Member of the Board of Management of Volkswagen AG. Members of the Board of Management of Volksw</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-8</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5710,17 +5731,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-10</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -5733,17 +5754,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790#members-of-the-supervisory-board</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-60</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -5756,17 +5777,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790#committees-of-the-supervisory-board-of-volkswagen-aktiengesellschaft</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-93</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -5779,17 +5800,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/executive-bodies-15790#members-of-the-board-of-management-of-volkswagen-ag</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-66</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -5802,40 +5823,40 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-15771</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-64</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On the media page of the Volkswagen Group, journalists will find the latest news and contacts of our brands and companies, upcoming events and publications. Current topics of the Volkswagen Group Volkswagen Group with 9 million  deliveries after strong fourth quarte On January 14, 2025, the Volkswagen Group published the deliveries for October to December 2024. Agreement reached: Volkswagen AG positions itself competitively for the future Following intensive negotiations between Volkswagen AG, IG Metall and the Works Council, a joint agreement entitled ‘Zukunft Volkswagen’ [Future Volkswagen] has been concluded.  The company and the Works Council are thereby jointly positioning Volkswagen AG for sustainable success. To this end, the company is realigning production capacities at Volkswagen AG's German locations. To this end, the company is realigning production capacities at Volkswagen AG's German locations. It is creating the conditions for a reduction in labour costs of €1.5 billion per year at the collectively agreed level with an agreement on the company wage settlement until 2030. The short-term reduction in labour costs and the agreed structural measures through capacity reduction and a decrease in development costs will lead to cost savings of over €4 billion per year in the medium term. In addition, a reduction in capacity of 734,000 units across the German plants is planned. This will enable Volkswagen AG to lay the foundation for important investments in future products through to 2030. The structural realignment of the company at an operational and collective level will create the conditions for achieving the return-on-sales target for the Volkswagen Passenger Cars brand in the medium term. Green energy for Gigafactory Salzgitter PowerCo SE relies on climate-friendly electricity for the operation of its cell factories. For the Salzgitter gigafactory, it has now concluded the first long-term purchase agreements with the green energy producers Alterric and </t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-15771</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-15771#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-54</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -5848,17 +5869,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-15771</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/media-15771#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-37</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5871,40 +5892,40 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-in-the-supply-chain-16113</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-74</t>
+        </is>
+      </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Sustainability in the Supply Chain The Volkswagen Group takes its corporate responsibility for human rights and the environment very seriously. Our goal is to create responsible supply chains for future generations. Our Management Approach: the Responsible Supply Chain System (ReSC) Based on a systematic risk analysis, we pursue the aim of avoiding and minimizing human rights, social and environmental risks along the Volkswagen Group's supply chain. Violations of our sustainability requirements are to be eliminated and the sustainability performance of our suppliers is to be continuously improved. Our Responsible Supply Chain System (ReSC for short) includes the following elements, which build on each other: A regular risk analysis is used to identify risks in the Volkswagen Group's supply chain in a forward-looking manner. The analysis is based on the supplier's business models and takes into account external and internal data on human rights and environmental risks. Based on the assessment of the risks, each supplier is assigned a low, medium or high sustainability risk. These proactive and reactive measures include the Code of Conduct for Business Partners, the “Supply Chain Grievance Mechanism”, media screenings, the Sustainability Rating and the qualification of suppliers and employees. These include the Human Rights Focus System in the supply chain, the Raw Materials Due Diligence Management System, and collaboration with external partners to further develop the concept of sustainability in the supply chain. Our goal is to identify sustainability risks in our supply chain and to address them effectively. Sustainability Rating (S-Rating) was introduced in 2019 for all relevant companies and suppliers with a high sustainability risk. The S-Rating examines the sustainability performance of relevant suppliers and identifies opportunities for continuous improvement. It evaluates the environmental performance of suppliers as well as their social sustainability and i</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-in-the-supply-chain-16113</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-in-the-supply-chain-16113#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-95</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5917,17 +5938,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-in-the-supply-chain-16113</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/sustainability-in-the-supply-chain-16113#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-9</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5940,40 +5961,40 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/initiatives-18186</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-45</t>
+        </is>
+      </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Sustainability is deeply rooted in the Volkswagen Group. Our responsibility is not limited to the company and our workforce, but also includes society as a whole. Our initiatives are examples of how we fulfill this responsibility. The vision of the “Zero Impact Factory” describes a factory that produces in a climate-, resource- and environmentally friendly manner and thus avoids environmental impacts in vehicle and component production. The Volkswagen Group is committed to the Paris Climate Agreement and aims to become a CO -neutral company by 2050. It will also be of great importance to include the retail and service locations worldwide on this path.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/initiatives-18186</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/initiatives-18186#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5986,17 +6007,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/initiatives-18186</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/initiatives-18186#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-39</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6009,18 +6030,22 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shares-15791</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-58</t>
+        </is>
+      </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
@@ -6028,17 +6053,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shares-15791</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shares-15791#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-62</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6051,17 +6076,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shares-15791</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/shares-15791#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-3</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6074,40 +6099,40 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/e-mobility-info-hub-18823</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-34</t>
+        </is>
+      </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>Experience electric mobility: All-electric vehicles from the Volkswagen Group stand for driving pleasure, innovative technology and sustainable mobility. With the cross-brand communication campaign Enter Electric, the Volkswagen Group is placing a clear focus on education. The initiative dispels widespread myths and prejudices and explains the advantages of e-mobility in detail. Key topics such as suitability for everyday use, battery life, charging convenience, cost benefits and sustainability are addressed. Vehicle leasing is key to driving the further market success of e-mobility. E-models are already available today with attractive leasing rates at levels similar to combustion vehicles. Falling battery costs will lead to lower purchase prices for e-models in the coming years. E-models are cheaper to maintain, as home charging costs are 50%-60% lower than petrol costs and often also lower when charging on the go. Battery components are generally repairable or replaceable. Full battery replacement is a rare exception. More than 80% of our BEVs are leased, and we manage the resale of most used vehicles. Current ranges are fully suitable for everyday use. On average, a driver charges their vehicle only twice a month. Ranges remain suitable for everyday use even in winter conditions. The battery is designed to last the vehicle's entire lifespan. We adhere to comprehensive testing regimes with higher internal standards than national regulations. There is no increased risk associated with EVs. Today, up to 310 km range can be recharged in just ten minutes. Charging performance has been consistently improved with the MEB product updates. The charging infrastructure is significantly better than its reputation, but further expansion efforts are necessary. There is a consensus across all studies: EVs have an unbeatable carbon footprint. The free return of batteries and EVs is guaranteed, closing the raw material cycle. We report on raw material procurement with unparallele</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/e-mobility-info-hub-18823</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/e-mobility-info-hub-18823#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-22</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6120,17 +6145,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/e-mobility-info-hub-18823</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/e-mobility-info-hub-18823#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-23</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6143,40 +6168,40 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-relations-17319</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#foreword</t>
+        </is>
+      </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>Together with its stakeholders, the Volkswagen Group shapes the framework for sustainable and socially responsible conduct. Initiator, supporter, critical voice and "challenger" – the roles and tasks of the Volkswagen Group Sustainability Council are as diverse as its topics. The Volkswagen Group and its brands operate in a complex and heavily regulated environment. We see it as our responsibility to actively shape the framework for our business activities in dialogue with our stakeholders.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-relations-17319</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-relations-17319#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-36</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6189,17 +6214,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-relations-17319</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/stakeholder-relations-17319#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-76</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6212,40 +6237,40 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/event-highlights-18120</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-40</t>
+        </is>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>The 64th Annual General Meeting of Volkswagen Aktiengesellschaft took place on Wednesday, May 29, 2024 as a virtual Annual General Meeting without physical presence of shareholders. The Beijing Auto Show took place from April 25 to May 5. At its Media Night on April 24, the Volkswagen Group presented product highlights and progress in its "in China for China" strategy. Annual Report &amp; Full Year Results 2023 Annual Report &amp; Full Year Results 2023 - On March 13, 2024 the Volkswagen Group published its results for the year 2023. The Volkswagen Group Media Night took place on September 3 with the motto “Success by Design”. On September 4 the Group was hosting the Volkswagen Group Press Conference “Mobility for Generations” at the IAA Summit. The Volkswagen Group Capital Markets Day 2023 took place on June 21, 2023 at the Hockenheimring. Annual Report &amp; Full Year Results 2023 Annual Report &amp; Full Year Results 2022 - On March 14, 2023 the Volkswagen Group published its results for the year 2022.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/event-highlights-18120</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/event-highlights-18120#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-48</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6258,17 +6283,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/event-highlights-18120</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/event-highlights-18120#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-77</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6281,40 +6306,40 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-16031</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-28</t>
+        </is>
+      </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>On this page you will find an overview of all Volkswagen Groups' Financial News, Ad Hoc Releases, Voting Rights as well as Other Legal Issues.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-16031</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-16031#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-4</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6327,17 +6352,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-16031</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-news-16031#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-18</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6350,40 +6375,40 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/skoda-16061</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-15</t>
+        </is>
+      </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t xml:space="preserve">With a tradition spanning 130 years, Škoda Auto is navigating its transition towards e-mobility. By offering the best of both worlds – combustion and electric drives – the Czech automaker is meeting global customer demand for accessible, efficient mobility, both in terms of powertrain options and body variants. What sets Škoda apart is its commitment to exceptional value for money, high quality, and functionality, combined with intuitive operation. The carmaker’s portfolio includes all-electric vehicles, enhanced plug-in and mild hybrids, as well as highly efficient ICE models. These ensure that Škoda can meet the diverse needs of customers across all markets. The brand’s future is increasingly electric, clearly defined in its e-mobility roadmap, which lays out plans for six entirely new electric models in the coming years. However, during this transitional period, modern and efficient ICEs, along with state-of-the-art plug-in and mild hybrids, will remain important pillars of Škoda’s operational strategy. The company’s goal is to become the leading brand for active and functionality-oriented customers, both in Europe and in rapidly developing markets. Škoda is further expanding its global footprint: As an integral part of the Brand Group Core – the organisational merger of the Volkswagen Group's volume brands – Škoda Auto is leveraging its expertise in price-sensitive growth markets and contributing know-how to unlock new growth potential for the Volkswagen Group in emerging markets. Škoda Auto spearheads the Volkswagen Group’s operations in India, a key market and future export hub in its internationalisation strategy. Additionally, by tapping dynamic growth markets such as Kazakhstan and Vietnam, Škoda is diversifying its global presence and gaining access to promising regions. Sustainability is a key factor in Škoda’s long-term corporate success and is firmly anchored in its transformation strategy. The company prioritises minimising the environmental impact of </t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/skoda-16061</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/skoda-16061#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-61</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6396,17 +6421,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/skoda-16061</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/skoda-16061#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#middle-east</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6419,40 +6444,40 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/outlook-16029</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-83</t>
+        </is>
+      </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Our planning is based on the assumption that global economic output will grow overall in 2024 at a similar pace as in 2023. The persistently high, albeit declining, inflation in major economic regions and the resulting restrictive  monetary policy measures taken by central banks are expected to dampen consumer demand. However, we  anticipate a gradual reduction in the key interest rates by Western central banks during the current year, which  should have a bolstering effect on overall demand. We continue to believe that risks will arise from protectionist  tendencies, turbulence in the financial markets and structural deficits in individual countries. In addition, contin uing geopolitical tensions and conflicts are weighing on growth prospects; risks are associated in particular with  the Russia-Ukraine conflict and the confrontations in the Middle East. We assume that on average both the  advanced economies and the group of emerging markets will show positive momentum at the level of the previous  year. The trend in the automotive industry closely follows global economic developments. We assume that compe tition in the international automotive markets will intensify further. Crisis-related disruption to the global supply  chain and the resulting impact on vehicle availability may weigh on the volume of new registrations. Uncertainty  may also arise from shortages of intermediates and commodities. These may be further exacerbated by the conse quences of the Russia-Ukraine conflict and the confrontations in the Middle East and may, in particular, lead to  rising prices for materials and a declining availability of energy. We predict that trends in the markets for passenger cars in the individual regions will be mixed but predomi nantly positive in 2024. Overall, the global volume of new car sales is expected to be similar to the prior-year figure.  For 2024, we anticipate that the volume of new passenger car registrations in Western Europe will likewise be on  a simi</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/outlook-16029</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/outlook-16029#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-85</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6465,17 +6490,17 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/outlook-16029</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/outlook-16029#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-91</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6488,18 +6513,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/search</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-60</t>
+        </is>
+      </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -6507,17 +6536,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/search</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/search#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-91</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -6530,17 +6559,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/search</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/search#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-35</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -6553,40 +6582,40 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/green-finance-15752</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-94</t>
+        </is>
+      </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Becoming one of the world's leading providers of sustainable mobility calls for substantial capital expenditure. The Green Finance Frameworks defines the scope for sustainable financial instruments of the Volkswagen Group. Volkswagen Green Finance Report 2023 Volkswagen Green Finance Report 2022 All materials ESG indicators can be found in the Sustainability section In the Volkswagen Group Sustainability report there is more information about Sustainability in the Group.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/green-finance-15752</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/green-finance-15752#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-54</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -6599,17 +6628,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/green-finance-15752</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/green-finance-15752#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-13</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -6622,40 +6651,40 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/brands-and-brand-groups-15811</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-45</t>
+        </is>
+      </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group is undergoing the biggest transformation process in its history as it evolves from an international automotive company into a software-centric global leader in sustainable mobility by 2030. An important cornerstone of this is the ten strong core brands that meet every mobility need. They are divided into the brand groups ‘Core’, ‘Progressive’ and ‘Sport Luxury’ and work independently for shared success. Each brand is continuously developing and refining its own global positioning and strategic focus. At the same time, all brands consistently leverage synergies within the Group in order to shape the future together. Their ability to retain their distinct product and brand characteristics while sharing and enabling each other’s synergies is a testament to the strength of the Volkswagen group as whole and the cooperative spirit emboldened within each brand. In addition to its core brands, the Volkswagen Group also relies on strong subsidiaries and strategic partners across heavy commercial vehicles, engineering, software, financial services and mobility solutions to accelerate its transformation into a technology group. The aim is to offer attractive, safe and environmentally friendly vehicles and mobility-related services, both today and in the future. The Volkswagen Group and its brands act responsibly towards the environment, the economy and society. By assuming responsibility for future generations, the company offers its customers and stakeholders better solutions for every mobility need. The brand group CORE is the       organizational merger of the Volkswagen Group's volume brands. Within the       Group, the sister brands Volkswagen, Škoda, SEAT/CUPRA and Volkswagen       Commercial Vehicles are working closely together to achieve joint growth       - and to significantly increase the overall efficiency of the five       brands. To the Audi, Bentley, Lamborghini, and Ducati work closely together in the Brand Group Progressive and benefit fr</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/brands-and-brand-groups-15811</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/brands-and-brand-groups-15811#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-42</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -6668,17 +6697,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/brands-and-brand-groups-15811</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/brands-and-brand-groups-15811#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-20</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -6691,40 +6720,40 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-instruments-15775</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#europe</t>
+        </is>
+      </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Due to legal reasons we are not permitted to give further information to our bonds. Please contact your local bank if you have any questions. You can find the legally binding documentation on the website of the Luxembourg Stock Exchange ( ). A one-time registration is free of charge. Volkswagen International Finance N.V. Volkswagen Group of America Finance, LLC Volkswagen Credit Canada, Inc. / Crédit VW Canada, Inc. Volkswagen Financial Services AG Please find an overview of the refinancing of the Volkswagen Financial Services AG on their webpage: go to Volkswagen Financial Services AG The information contained on the following websites does not constitute an offer of or an invitation or recommendation to subscribe, purchase, sell, hold or otherwise deal in any securities, but is provided for information purposes only. It may not be made available to any person in the United States of America or any US person (as defined in applicable U.S. securities laws). Securities discussed on the following websites may not be eligible for sale in certain jurisdictions or to certain persons. Distribution in certain jurisdictions or to certain persons of or the public dissemination of the information on the following websites in certain jurisdictions may be subject to legal restrictions. Viewers of the following websites are responsible for conducting their own investigation and analysis of the information provided and for evaluating the merits and risks involved in investing in any securities referenced therein. By clicking on the "I accept" button below, you confirm that (i) you have read and understood the above restrictions, and (ii) you are not a resident of and/or domiciled in the United States of America or a US person, and you will not transmit or otherwise send any information contained in the following websites to any person located or resident in the United States of America. Please leave this page if you do not accept this Disclaimer.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-instruments-15775</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-instruments-15775#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-6</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -6737,17 +6766,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-instruments-15775</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-instruments-15775#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-97</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -6760,40 +6789,40 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/other-legal-issues-15736</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-58</t>
+        </is>
+      </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Date of Disclosure of Financial Reports 2024 Announcement according to articles 114, 115, 117 of the WpHG (Securities Trading Act) with the aim of a Europe-wide distribution</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/other-legal-issues-15736</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/other-legal-issues-15736#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-34</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6806,17 +6835,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/other-legal-issues-15736</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/other-legal-issues-15736#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-92</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6829,40 +6858,40 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-report-and-publications-16121</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-51</t>
+        </is>
+      </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Financial Report &amp; Publications On this page you will find the latest financial reports as well as publications of the Volkswagen Group and Volkswagen Aktiengesellschaft.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-report-and-publications-16121</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-report-and-publications-16121#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-14</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6875,17 +6904,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-report-and-publications-16121</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/financial-report-and-publications-16121#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-44</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6898,40 +6927,40 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/society-18271</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-11</t>
+        </is>
+      </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As one of the world's largest automotive manufacturers, the Volkswagen Group has a great responsibility toward its partners, stakeholders, and society. The aim is not only to live up to this responsibility, but to further increase its positive impact. The holistic approach of our regenerate+ sustainability strategy provides the basis for advancing sustainability together with our partners and stakeholders. Volkswagen Group creates responsible and sustainable supply The Volkswagen Group is committed to enabling sustainable mobility for future generations. This includes meeting our legal, social, and ecological responsibilities not only within the Group also in our supply chains. These include more than 63,000 supplier locations in 96 countries around the world responsibly, not only to minimize risks, but also to ensure a positive contribution for all partners. The ambition is to be able to show by 2040 that more than 95 percent of suppliers have a positive sustainability rating and a certified environmental management system ( ISO 14001 or EMAS) based on sales. The Volkswagen Group is a reliable The Volkswagen Group prides itself on being a steadfast, trustworthy, and reliable partner, both today and for generations to come. Our reputation is based not only on our rich heritage, but also on our clear commitment to shaping the sustainable mobility landscape of tomorrow. entity, our operations impact the lives of . Recognizing this impact, we value an ongoing dialogue characterized by openness, structure, and constructive engagement with all stakeholders. Central to this approach is the cultivation of relationships, actively listening to understand various needs, and working together for mutual benefit. Our overarching goal is to cultivate meaningful connections, build trust, and forge lasting partnerships through this dialogue. The Volkswagen Group increases its positive social Society and the Volkswagen Group are inextricably linked, each shaping and influencing the </t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/society-18271</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/society-18271#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-85</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6944,17 +6973,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/society-18271</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/society-18271#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-49</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6967,40 +6996,40 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/register</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-68</t>
+        </is>
+      </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group website provides interested parties with detailed insights and information about the Group's activities. To stay informed, users can subscribe to the press releases of Volkswagen Group via e‑mail service. We’ll first check whether you are already registered.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/register</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/register#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-71</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7013,17 +7042,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/register</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/register#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-75</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7036,40 +7065,40 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-commercial-vehicles-15999</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-5</t>
+        </is>
+      </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>As a leading manufacturer of light commercial vehicles, the Volkswagen Commercial Vehicles brand is reshaping the transportation of goods, services and people in a fundamental and lasting way. Volkswagen Commercial Vehicles transports success, freedom and future. At the same time, the independent brand within the Volkswagen Group has always taken mobility to the next level: Volkswagen Commercial Vehicles develops, builds and sells light commercial vehicles worldwide and with its products transports not only construction workers, families and adventurers but also bread rolls, parcels or surfboards. Every day, the brand's vehicles help countless people all over the world to do a good job - whether it's on the road as mobile workshops or bringing emergency doctors and police officers to their places of work. At the sites in Hanover (D), Poznań (PL), Września (PL) and Pacheco (ARG), around 24,000 employees produce the Transporter, Multivan, Caddy, Crafter, California, Amarok and series – the all-electric version of the iconic Bulli. Within Volkswagen Group, Volkswagen Commercial Vehicles is also the lead brand for autonomous driving and mobility services such as Mobility-as-a-Service and Transport-as-a-Service – fields in which the company is shaping the future of mobility. In this way, the brand is making a contribution to society that goes far beyond transport from A to B: Volkswagen Commercial Vehicles makes mobility cleaner, smarter and more sustainable. This is what Volkswagen Commercial Vehicles stands for with its brand promise: We transport success, freedom and the future.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-commercial-vehicles-15999</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-commercial-vehicles-15999#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-16</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7082,17 +7111,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-commercial-vehicles-15999</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-commercial-vehicles-15999#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-67</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7105,40 +7134,40 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/traton-se-16021</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-38</t>
+        </is>
+      </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>With its brands Scania, MAN, International, and Volkswagen Truck &amp; Bus, TRATON SE is one of the world’s leading commercial vehicle manufacturers. Its range comprises light-duty commercial vehicles, trucks, and buses. The Group aims to reinvent transportation — with its products, its services, and as a partner to its customers. Under the motto of Transforming Transportation, the “TRATON Way Forward” strategy focuses on four elements: Responsible Company, Value Creation, TRATON Accelerated! And Strategy Execution &amp; Governance. The TRATON GROUP intends to become even more responsible as a company in every respect. Decarbonization and circularity will play a key role in this endeavor. The second element of the TRATON Way Forward strategy is Value Creation. It focuses on a sustained increase in value for the TRATON GROUP stakeholders. Additional sources of revenue and key markets will be tapped into to reach this goal. The integration of Navistar is part of this, as is the role of TRATON in China. With the third element, TRATON Accelerated!, the company wants to play an active role in shaping the transportation and logistics ecosystem of the future. To do so, the Company intends to create new business models and partnerships that add value in a world marked by electrification, autonomous driving, and connectivity. The fourth element focuses on the strategy through the TRATON modular system and the efficient cooperation of the brands. The "TRATON Way Forward" strategy pays into TRATON's corporate purpose: Transforming Transportation Together. For a sustainable world. Find out more about the brands and service entities of TRATON SE here 2023 Year-end Reporting of the Volkswagen Group Companies</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/traton-se-16021</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/traton-se-16021#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-30</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7151,17 +7180,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/traton-se-16021</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/traton-se-16021#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-42</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7174,40 +7203,40 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-15847</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-52</t>
+        </is>
+      </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>Volkswagen is the brand with heart: likeable, high-quality and trend-setting – from the T1 Bulli to the Beetle and the Golf to the all-electric ID. Family. The company transfers the typical VW virtues into the new world of mobility: CO₂-neutral, digital and for everyone. The goal: to make VW the leading volume brand for customers worldwide. The focus of Volkswagen's transformation process is e-mobility: eleven new e-models will be introduced by 2027. Then the brand will have the broadest e-portfolio compared to the competition - from an entry-level model for under 25,000 euros to the electric flagship . By 2030, the share of pure e-cars in Europe should already account for 80 percent of total sales - and more than 50 percent in the USA and China. In parallel with the expansion of its sustainable product portfolio, Volkswagen is also on the "way to ZERO". VW has set itself the goal of becoming carbon neutral by 2050. To achieve this, the brand is converting more and more plants worldwide to electromobility and is further developing the modular e-drive system (MEB) into MEB+: for faster charging times (175-200 kW), more range thanks to the unified cell, increased performance and improved automated driving functions. Annual reporting of the Volkswagen Group companies 2023</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-15847</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-15847#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-94</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7220,17 +7249,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-15847</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/volkswagen-15847#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-12</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7243,40 +7272,40 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/policies-16116</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-21</t>
+        </is>
+      </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group has made a commitment to sustainable, transparent and responsible management. In line with the recommendations of the German Corporate Governance Code, we practice company-wide sustainability coordination and forward-looking risk management and ensure a clear framework for the future-oriented handling of environmental issues, employee responsibility and social engagement by our brands and in the various regions. Voluntary commitments and principles that apply across the company form the basis and backbone of our strategic sustainability objectives. Group Essentials and Code of Conduct The Code of Conduct of the Volkswagen Group The Volkswagen Group Code of Conduct, OUR CODE, is the ethical and values-based foundation for acting with integrity and in compliance with the rules in our Group. It serves as a binding guideline for all employees in all brands and companies – all over the world. The Group Essentials of the Volkswagen Group The seven Group Essentials are the common foundation of values of the Volkswagen Group that unites all brands and companies and over 600,000 employees in the Group. Group Environmental Policy Statement Environmental Policy of the Volkswagen AG Biodiversity Commitment of the Volkswagen Group</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/policies-16116</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/policies-16116#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-12</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7289,17 +7318,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/policies-16116</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/policies-16116#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-32</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7312,40 +7341,40 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-controversies-15846</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-36</t>
+        </is>
+      </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Volkswagen AG is in full transformation mode, pushing forward on our strategy with full force. Parallel to the transformation of our industry we are seeing the rising importance of in investment decisions, which no one will argue has become mainstream and will continue to grow at a rapid pace. is also growing continuously within our organization and is fully embedded in our decision making processes. We believe we have made significant progress amongst others in the areas stated below. Nevertheless we are fully aware that much more needs to be done. We have learned that the area of controversies is a reoccurring concern. This website addresses relevant current and ongoing controversies in a factual manner with the aim of increasing transparency for you our stakeholders. We invite you to browse this content, welcome any feedback from your side, also on suggestions of further topics that require clarity, and we look forward to our increased dialogue. Please feel free to send a mail to investor.relations@volkswagen.de or contact the following persons, who are responsible for ESG within the IR Team: The Volkswagen Group stands firmly against forced and child labor in connection with its business activities. The company takes its responsibility for human rights very seriously in all regions of the world, including China, adhering closely to the UN Guiding Principles on Business and Human Rights. These principles form part of the company’s Code of Conduct. We maintain these values throughout our supply chain and have zero tolerance for any exceptions to this policy. While in Chinese Joint Venture facilities the Joint Venture is responsible for all employee welfare, all partners agree that basic values and legal rights must be respected and protected. Ensuring good working conditions for all employees is of top priority. Volkswagen and its partner SAIC are also in full agreement that human rights violations will not be tolerated in the Urumqi plant, which is operated by a </t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-controversies-15846</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-controversies-15846#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-71</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7358,17 +7387,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-controversies-15846</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/esg-controversies-15846#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-48</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -7381,40 +7410,40 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/engagement-15956</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-84</t>
+        </is>
+      </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>The Volkswagen Group faces its social responsibilities head on by adhering to the two basic principles of continuity and participation. The Group realizes sustainable projects through long-term partnerships. uses national and international cultural projects and partnerships to promote education Group is also involved in resolving social issues. Since 2015, the company has been committed to helping refugees by managing emergency aid, helping with language The development and management of long-term partnerships are key factors in ensuring that</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/engagement-15956</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/engagement-15956#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-65</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -7427,17 +7456,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/engagement-15956</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/engagement-15956#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-80</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -7450,40 +7479,40 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/dividend-15991</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-83</t>
+        </is>
+      </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>In the interests of all stakeholders, Volkswagen Aktiengesellschaft aims for a continuous dividend development that allows shareholders to participate appropriately in the company's business success. The dividend policy matches the Group's financial strategy. The dividend proposed to the Annual General Meeting for the respective underlying year therefore reflects the financial management objectives, in particular ensuring a solid financial foundation as part of the implementation of the corporate strategy. Volkswagen AG's payout ratio is based on the Group’s earnings after tax attributable to the shareholders of Volkswagen AG and amounted to 28.3% for the 2023 financial year. Volkswagen AG strives for a payout ratio of at least 30% as part of its dividend policy.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/dividend-15991</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/dividend-15991#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-81</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -7496,17 +7525,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/dividend-15991</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/dividend-15991#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-21</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -7519,40 +7548,40 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-of-voting-rights-according-to-wphg-15780</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-57</t>
+        </is>
+      </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>Reporting of Voting Rights according to WpHG In accordance with the Securities Trading Law (Wertpapierhandelsgesetz) a party that reaches, exceeds or falls below certain percentage levels of voting rights and/or financial instruments related to voting rights, is obliged to report this to the affected company without delay. We kindly request that any shareholders obliged to inform Volkswagen AG about changes in numbers of voting rights submit the relevant notification only electronically (in accordance with section 2 StimmRMV) to the following e-mail address: Since January 2013 the Volkswagen Aktiengesellschaft has received the following notifications of voting rights:</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-of-voting-rights-according-to-wphg-15780</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-of-voting-rights-according-to-wphg-15780#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-67</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -7565,17 +7594,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-of-voting-rights-according-to-wphg-15780</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/reporting-of-voting-rights-according-to-wphg-15780#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-96</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -7588,40 +7617,40 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/history-15914</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-4</t>
+        </is>
+      </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>From the Volkswagen idea to the Golf and the all-electric ID family; from the first foreign sales company in Canada to the founding of Volkswagen India; from Audi to Scania; from Wolfsburg to Chattanooga and Changchun: in German and English, the multimedia Chronicle provides a wide-ranging insight into the Volkswagen Group's history. Facts and figures for each year, including downloadable Annual Reports, provide a wealth of information. Customers and employees around the world can identify with Volkswagen Aktiengesellschaft through its history. The Corporate Archives in Wolfsburg provide the tools for this journey of discovery. The archives only store documents of genuine significance, and make them available for research and other uses. Almost ten kilometres of files, over a million photos, 5,300 films, 193,000 publications and 23,000 drawings as well as digital data are housed in the archives. This material is the starting point for writing history and the foundation for legal authentication. It is the source of answers to questions on the history of Volkswagen, its products, plants and employees. Access to the documents in the Corporate Archives released for public use is possible by prior arrangement. Place of Remembrance of Forced Labour in the Volkswagen Factory The “Place of Remembrance of Forced Labour in the Volkswagen Factory” is a permanent exhibition which opened in 1999. It is housed in a former air-raid shelter in shed 1 at the Wolfsburg plant. Each room of the shelter deals with a specific topic. The documents, photos, eyewitness accounts and items loaned by those personally affected provide a detailed insight into the scale of forced labour and the extent of the company’s involvement in the National Socialist war economy. A digital media station uses photos and newspaper reports to show Volkswagen AG’s examination of its history under National Socialism and its commemorative work. The media station also focuses on the disbursement from the “Humanitar</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/history-15914</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/history-15914#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-2</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -7634,17 +7663,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/history-15914</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/history-15914#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-88</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -7657,40 +7686,40 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/2023-year-end-reporting-of-the-volkswagen-group-companies-15787</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-92</t>
+        </is>
+      </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>2023 Year-end Reporting of the Volkswagen Group Companies Here you will find the 2023 Year-end reporting of the Volkswagen Group and Brands. Volkswagen Financial Service - Investor Relations</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/2023-year-end-reporting-of-the-volkswagen-group-companies-15787</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/2023-year-end-reporting-of-the-volkswagen-group-companies-15787#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-41</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -7703,17 +7732,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/2023-year-end-reporting-of-the-volkswagen-group-companies-15787</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/2023-year-end-reporting-of-the-volkswagen-group-companies-15787#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-87</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -7726,40 +7755,40 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fact-sheet-16024</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-78</t>
+        </is>
+      </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>VOLKSWAGEN AG Preference shares 766403               DE0007664039 766400               DE0007664005 Volkswagen AG has reached the approved registration limit for the American Depositary Receipt (“ADR”) programs and decided not to renew them. Volkswagen AG has notified JPMorgan Chase Bank, N.A., as Depositary, that it is terminating each of its sponsored ADR programs, effective August 13, 2018. Volkswagen is globally represented with its products and its shares. The exchanges on which the shares are listed are set out below: Delisting of shares and cancellation of trading on the SIX Swiss Exchange (German only) Delisting of shares and cancellation of trading on LuxSE Delisting of shares and cancellation of trading on LSE</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fact-sheet-16024</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fact-sheet-16024#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-98</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -7772,17 +7801,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fact-sheet-16024</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/fact-sheet-16024#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-53</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -7795,40 +7824,40 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cariad-16008</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-70</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>CARIAD is the software powerhouse of Volkswagen Group, bundling and further expanding the software competencies of the company. The focus is on developing a seamless digital experience and automated driving functions to make mobility safer, more sustainable and more comfortable. The software-defined vehicle powered by CARIAD is a crucial contribution to the success of the Group’s strategy. The company was established in 2020 as the Car.Software Organisation. Today, around 6,500 engineers and developers work at CARIAD globally on a uniform software and technology platform for all Volkswagen Group brands. This includes a uniform operating system, a uniform E/E architecture and an automotive cloud. The company is also developing digital functions for the vehicle: driving assistance systems, highly automated driving functions and a uniform infotainment platform including a third-party application store. In this way, CARIAD is creating a new digital ecosystem connecting the digital world of drivers with Volkswagen Group vehicles, paving the way for new, digital business models for the Volkswagen Group. With its scalable software and technology platform, CARIAD is developing the technological foundation to turn the car not only into a digital device, but also into a smart companion: a vehicle that accompanies customers into the future even years later through updates with new digital function. CARIAD has its headquarters in Germany. Developers and engineers of over 90 different nationalities work at seven locations in leading automotive and software centres such as Wolfsburg, Ingolstadt, Munich and Berlin. In addition to Europe, CARIAD's key markets include North America and China. With its own branches there, CARIAD drives automotive innovation worldwide. CARIAD, Inc. in the USA and the CARIAD subsidiary in China deliver solutions that are specifically tailored to the wishes of their regional customers - and also enrich the global customer experience.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cariad-16008</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cariad-16008#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-81</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -7841,17 +7870,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cariad-16008</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/cariad-16008#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-17</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -7864,40 +7893,40 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-15765</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-75</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>The Group comprises ten brands from five European countries: Volkswagen, Volkswagen Commercial Vehicles, ŠKODA, SEAT, CUPRA, Audi, Lamborghini, Bentley, Porsche and Ducati. In addition, the Volkswagen Group offers a wide range of further brands and business units including financial services. Volkswagen Financial Services comprises dealer and customer financing, leasing, banking and insurance activities, and fleet management. As one of the world's leading manufacturers of automobiles and commercial vehicles, we want to play a key role in shaping the transformation to a new age of mobility with our brands, business areas and financial services. From the company profile to the group essentials or the history - here you will find the most important information about the Volkswagen Group. With its “NEW AUTO - Mobility for Generations to Come” Group strategy and future program, the Volkswagen Group is paving the way for the biggest change process in its history: the realignment of one of the best carmakers to become a globally leading provider of sustainable mobility. To achieve that, the Group will be transforming its automotive core business, and will among other things be launching a further 30-plus fully electric cars by 2025, as well as expanding battery technology and autonomous driving as new core competences. The Volkswagen Group is undergoing the biggest transformation process in its history as it evolves from an international automotive company into a software-centric global leader in sustainable mobility by 2030. The Volkswagen Group accepts its social responsibility and follows two principles in its commitment: Continuity and participation. Long-term partnerships make it possible to implement sustainable projects. Volkswagen is of the firm belief that sustainable economic success can only be achieved by adhering to regulations and standards. We stand for reputable and honest conduct in the course of everyday business which complies with the relevant rules and</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-15765</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-15765#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-19</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -7910,17 +7939,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-15765</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/group-15765#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-7</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -7933,40 +7962,40 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/declarations-15792</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-13</t>
+        </is>
+      </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Current Declaration of Conformity Group Corporate Governance Declaration The group corporate governance declaration required by section 315d of the Handelsgesetzbuch (HGB – German Commercial Code) includes the declaration of conformity, disclosures on corporate governance practices and the description of the working practices of the Board of Management and the Supervisory Board, in accordance with section 289f of the HGB.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/declarations-15792</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/declarations-15792#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-50</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -7979,17 +8008,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/declarations-15792</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/declarations-15792#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-6</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8002,40 +8031,40 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-people-18270</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-44</t>
+        </is>
+      </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Volkswagen Group is a social employer - and our regenerate+ sustainability strategy contributes to this. We stand for a diverse, inclusive and non-discriminatory culture. Through fair wages, we contribute to securing the standard of living of our employees at our locations. We invest extensively in the qualification of our employees and in outstanding health and safety at work. The Volkswagen Group promotes a diverse, reject discrimination in any form. We promote cooperative in the workplace and are committed to inclusion. We are convinced that integrity and compliance can only be and we create the conditions for this. We are particularly concerned about increasing the proportion of women at all levels of the workforce. As a company traditionally dominated by engineers and technical workers, we face special challenges here, as do all automotive companies. By 2025, the proportion of women in management is to be increased to over 20 percent. We regularly the income gap between the sexes at Volkswagen Group and derive Diversity is also important to us in terms of culture, and mother tongue. Every year, we measure the degree of internationalization in the top management of the Volkswagen Group and continuously increase it. The Volkswagen Group wants to be a unique employer and lead teams to The transformation of the automotive industry is making work in a company like and interesting: Coding is taking its place alongside traditional engineering, artificial intelligence is relieving employees of routine tasks and digital business models are increasingly taking their place alongside physical products. At the Volkswagen Group, we want to on these advantages to provide all employees with working experience. It is important to us that everyone can keep pace with change. That is why we are investing heavily in training. We are aiming for 30 hours of training per employee per year by 2030. We want to further increase our attractiveness as an employer and have set a target </t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-people-18270</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-people-18270#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-9</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8048,17 +8077,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-people-18270</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/our-people-18270#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-46</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8071,40 +8100,40 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/remuneration-15764</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-79</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>remuneration of the Board of Management remuneration of the Supervisory Board for the 2023 fiscal year as well as a description of the system of remuneration for the Board of Management members system of remuneration for the Board of the Supervisory Board The remuneration system of 2024 for the members of the Board of Management was approved on the Annual General Meeting on May 29, 2024 with a majority of 99.48% of the valid votes cast. Remuneration system for the remuneration of members of the Board of Management Former systems of remuneration for the Board of Management The remuneration system of 2023 for the members of the Board of Management was approved on the Annual General Meeting on May 10, 2023 with a majority of 98.82% of the valid votes cast. The remuneration system of 2021 for the members of the Board of Management was approved on the Annual General Meeting on July 22, 2021 with a majority of 99.61% of the valid votes cast. The remuneration system of 2017 for the members of the Board of Management was approved on the Annual General Meeting on May 10, 2017 with a majority of 80.96% of the valid votes cast. Former remuneration systems for the remuneration of the Supervisory Board The remuneration system of 2023 for the members of the Supervisory Board was approved on the Annual General Meeting on May 10, 2023 with a majority of 99.99% of the valid votes cast. The remuneration system of 2021 for the members of the Supervisory Board was approved on the Annual General Meeting on July 22, 2021 with a majority of 99.99% of the valid votes cast. The remuneration system of 2017 for the members of the Supervisory Board was approved on the Annual General Meeting on May 10, 2017 with a majority of 99.98% of the valid votes cast.</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/remuneration-15764</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/remuneration-15764#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-78</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8117,17 +8146,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/remuneration-15764</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/remuneration-15764#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-38</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8140,40 +8169,40 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/more-publications-15769</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr"/>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-63</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>Financial Control System of the Volkswagen Group Association Climate Review 2023 Group Sustainability Report 2022</t>
-        </is>
-      </c>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/more-publications-15769</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/more-publications-15769#content</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-98</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -8186,17 +8215,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en</t>
+          <t>https://www2.deloitte.com/us/</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/more-publications-15769</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>https://www.volkswagen-group.com/en/more-publications-15769#cookie-manager</t>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-59</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -8205,6 +8234,1294 @@
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#americas</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-25</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-51</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-50</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-1</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-49</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-35</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-33</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-69</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-66</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-74</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-33</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-20</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-28</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-29</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-55</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-32</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-43</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-26</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-82</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-77</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-52</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-72</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-57</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-27</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-43</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-47</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-86</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-46</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-55</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-16</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-61</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-53</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-88</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-37</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-15</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-84</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-68</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-23</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-25</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-76</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-26</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-3</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-2</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-11</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-24</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-90</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-87</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-90</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-97</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-79</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-96</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-56</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-30</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-8</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>https://www2.deloitte.com/us/en/insights/economy/global-economic-outlook-2025.html#endnote-sup-89</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
